--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A35571-B609-4377-8947-ECFCEC254EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F7E02-51A9-4249-BB0A-F3E4F9AFC76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
   <si>
     <t>Complemento</t>
   </si>
@@ -687,6 +687,21 @@
   </si>
   <si>
     <t>S050008</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S150037</t>
+  </si>
+  <si>
+    <t>ADOÇANTE - 100ML</t>
+  </si>
+  <si>
+    <t>S030004</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
 </sst>
 </file>
@@ -794,7 +809,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1126,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,189 +1203,189 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>105</v>
+        <v>130</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="5">
-        <v>53</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>188</v>
+        <v>156</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="5">
-        <v>122</v>
+        <v>201</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="4">
-        <v>831</v>
+        <v>179</v>
+      </c>
+      <c r="D10" s="5">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5">
-        <v>809</v>
+        <v>203</v>
+      </c>
+      <c r="D11" s="4">
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>1045</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="4">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>190</v>
@@ -1361,60 +1394,60 @@
         <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1422,21 +1455,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>190</v>
@@ -1445,12 +1478,12 @@
         <v>21</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>190</v>
@@ -1459,32 +1492,32 @@
         <v>21</v>
       </c>
       <c r="D23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1492,35 +1525,35 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="5">
-        <v>904</v>
+        <v>28</v>
+      </c>
+      <c r="D27" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>190</v>
@@ -1528,27 +1561,27 @@
       <c r="C28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="4">
-        <v>903</v>
+      <c r="D28" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="D29" s="4">
-        <v>108</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>192</v>
@@ -1557,60 +1590,60 @@
         <v>30</v>
       </c>
       <c r="D30" s="4">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="4">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1618,83 +1651,83 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>188</v>
+        <v>36</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="5">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="4">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1702,13 +1735,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1716,21 +1749,21 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="5">
-        <v>899</v>
+        <v>46</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>190</v>
@@ -1739,12 +1772,12 @@
         <v>48</v>
       </c>
       <c r="D43" s="5">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>190</v>
@@ -1753,12 +1786,12 @@
         <v>48</v>
       </c>
       <c r="D44" s="5">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>190</v>
@@ -1767,54 +1800,54 @@
         <v>48</v>
       </c>
       <c r="D45" s="5">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="D46" s="5">
-        <v>1</v>
+        <v>898</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="4">
-        <v>471</v>
+        <v>162</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="D48" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>190</v>
@@ -1823,46 +1856,46 @@
         <v>53</v>
       </c>
       <c r="D49" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>188</v>
+        <v>53</v>
+      </c>
+      <c r="D50" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1870,27 +1903,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D54" s="4">
         <v>80</v>
@@ -1898,55 +1931,55 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="4">
-        <v>835</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="5">
+        <v>181</v>
+      </c>
+      <c r="D57" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
@@ -1954,55 +1987,55 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="4">
+        <v>134</v>
+      </c>
+      <c r="D59" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="D60" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D62" s="4">
         <v>103</v>
@@ -2010,7 +2043,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>190</v>
@@ -2019,54 +2052,54 @@
         <v>70</v>
       </c>
       <c r="D63" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>190</v>
@@ -2075,26 +2108,26 @@
         <v>77</v>
       </c>
       <c r="D67" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>191</v>
@@ -2103,12 +2136,12 @@
         <v>136</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>191</v>
@@ -2117,46 +2150,46 @@
         <v>136</v>
       </c>
       <c r="D70" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="D71" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2164,161 +2197,161 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="D74" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D78" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="D79" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D80" s="4">
-        <v>750</v>
+        <v>820</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D81" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D82" s="4">
-        <v>395</v>
+        <v>750</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
-        <v>86</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D84" s="4">
-        <v>87</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>190</v>
@@ -2326,117 +2359,117 @@
       <c r="C85" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>211</v>
+      <c r="D85" s="4">
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D86" s="4">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D87" s="4">
-        <v>54</v>
+        <v>96</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88" s="5">
-        <v>994</v>
+        <v>99</v>
+      </c>
+      <c r="D88" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="5">
-        <v>695</v>
+        <v>99</v>
+      </c>
+      <c r="D89" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>188</v>
+        <v>102</v>
+      </c>
+      <c r="D90" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D91" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" s="4">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2444,161 +2477,161 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D94" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D95" s="4">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="D96" s="4">
-        <v>107</v>
+        <v>884</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D97" s="4">
-        <v>918</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D98" s="4">
-        <v>449</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D99" s="4">
-        <v>704</v>
+        <v>918</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D100" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" s="5">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="D101" s="4">
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D102" s="5">
-        <v>799</v>
+      <c r="D102" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D103" s="5">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D104" s="5">
-        <v>569</v>
+        <v>799</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>196</v>
@@ -2607,74 +2640,74 @@
         <v>120</v>
       </c>
       <c r="D105" s="5">
-        <v>762</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="4">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="D106" s="5">
+        <v>569</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D107" s="4">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="D107" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="D108" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D109" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2682,65 +2715,103 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111" s="5">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D112" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="B115" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D115" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D112" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
-      <sortCondition ref="A1:A112"/>
+  <autoFilter ref="A1:D114" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D115">
+      <sortCondition ref="A1:A114"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="28">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D113">
+  <conditionalFormatting sqref="A2:D2 A76:D115 A4:D74">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:D75">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A75))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:D3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D52:D90 D8:D50" numberStoredAsText="1"/>
+    <ignoredError sqref="D76:D92 D9:D51 D53:D74" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F7E02-51A9-4249-BB0A-F3E4F9AFC76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4CCF5-07AC-4EA7-9237-A629880FF8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="223">
   <si>
     <t>Complemento</t>
   </si>
@@ -485,12 +485,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -683,12 +677,6 @@
     <t>S020036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
-    <t>S050008</t>
-  </si>
-  <si>
     <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
   </si>
   <si>
@@ -702,6 +690,24 @@
   </si>
   <si>
     <t>118</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
   </si>
 </sst>
 </file>
@@ -809,25 +815,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -863,9 +851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -903,7 +891,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1009,7 +997,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,7 +1139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1159,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1192,7 +1180,7 @@
         <v>146</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>147</v>
@@ -1203,16 +1191,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,7 +1208,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>130</v>
@@ -1234,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1248,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1262,7 +1250,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>128</v>
@@ -1273,13 +1261,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1287,27 +1275,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1315,13 +1303,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D11" s="4">
         <v>831</v>
@@ -1332,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1346,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1357,97 +1345,97 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D17" s="4">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1455,69 +1443,69 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1525,86 +1513,86 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="4">
-        <v>52</v>
+        <v>132</v>
+      </c>
+      <c r="D27" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="5">
-        <v>904</v>
+      <c r="D28" s="4">
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4">
-        <v>903</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="4">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="4">
-        <v>100</v>
+        <v>218</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1612,7 +1600,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1623,41 +1611,41 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="D33" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1665,83 +1653,83 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>188</v>
+        <v>36</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="5">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="4">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1749,13 +1737,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1763,142 +1751,142 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="5">
-        <v>899</v>
+        <v>46</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="5">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="5">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="5">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="D47" s="5">
-        <v>1</v>
+        <v>898</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="4">
-        <v>471</v>
+        <v>160</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="D49" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>188</v>
+        <v>53</v>
+      </c>
+      <c r="D51" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,7 +1894,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>56</v>
@@ -1920,7 +1908,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>58</v>
@@ -1934,7 +1922,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>60</v>
@@ -1948,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>62</v>
@@ -1959,13 +1947,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1976,7 +1964,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>64</v>
@@ -1990,7 +1978,7 @@
         <v>133</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>134</v>
@@ -2004,7 +1992,7 @@
         <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>139</v>
@@ -2018,7 +2006,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>66</v>
@@ -2032,7 +2020,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>68</v>
@@ -2046,7 +2034,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>70</v>
@@ -2060,7 +2048,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>70</v>
@@ -2074,7 +2062,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>73</v>
@@ -2088,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>75</v>
@@ -2102,7 +2090,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>77</v>
@@ -2116,7 +2104,7 @@
         <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>77</v>
@@ -2130,7 +2118,7 @@
         <v>135</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>136</v>
@@ -2141,10 +2129,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>136</v>
@@ -2158,7 +2146,7 @@
         <v>137</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>136</v>
@@ -2172,7 +2160,7 @@
         <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>80</v>
@@ -2186,7 +2174,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>82</v>
@@ -2197,83 +2185,83 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="4">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>188</v>
+        <v>221</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="D76" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>209</v>
+        <v>84</v>
+      </c>
+      <c r="D77" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2281,209 +2269,209 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="D80" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D81" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D82" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D83" s="4">
-        <v>553</v>
+        <v>750</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4">
-        <v>395</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D85" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D86" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>211</v>
+      <c r="D87" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" s="4">
-        <v>55</v>
+        <v>96</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D89" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D90" s="5">
-        <v>994</v>
+        <v>99</v>
+      </c>
+      <c r="D90" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D91" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>188</v>
+        <v>102</v>
+      </c>
+      <c r="D92" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" s="4">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2491,13 +2479,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2505,209 +2493,209 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="D96" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="D97" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D98" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D99" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D100" s="4">
-        <v>449</v>
+        <v>918</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D101" s="4">
-        <v>704</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D102" s="4">
-        <v>170</v>
+        <v>704</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="5">
-        <v>163</v>
+      <c r="D103" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D104" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D105" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D106" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D107" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D108" s="4">
-        <v>211</v>
+        <v>120</v>
+      </c>
+      <c r="D108" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="D109" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2715,103 +2703,104 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D111" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D112" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" s="5">
+        <v>143</v>
+      </c>
+      <c r="D113" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D114" s="4">
-        <v>15</v>
+        <v>145</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D115" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="B116" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D116" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D114" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D115">
-      <sortCondition ref="A1:A114"/>
+  <autoFilter ref="A1:D115" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D116">
+      <sortCondition ref="A1:A115"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A76:D115 A4:D74">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D116">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:D75">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A75))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D76:D92 D9:D51 D53:D74" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4CCF5-07AC-4EA7-9237-A629880FF8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE442E18-2228-43BA-9231-6A162D1E4B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -632,15 +632,9 @@
     <t>S010046</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>PC C/10</t>
   </si>
   <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>BISCOITO - ROSQUINHA</t>
   </si>
   <si>
@@ -708,6 +702,12 @@
   </si>
   <si>
     <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1149,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,16 +1200,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,13 +1284,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>186</v>
@@ -1303,13 +1312,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="4">
         <v>831</v>
@@ -1583,13 +1592,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1611,13 +1620,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1639,7 +1648,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>188</v>
@@ -1877,13 +1886,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>186</v>
@@ -2185,13 +2194,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>186</v>
@@ -2199,13 +2208,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2241,16 +2250,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,7 +2390,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>188</v>
@@ -2390,7 +2399,7 @@
         <v>96</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2451,13 +2460,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>186</v>
@@ -2792,13 +2801,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="2" priority="32">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D116">
+  <conditionalFormatting sqref="A2:D8 A10:D116">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:D9">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE442E18-2228-43BA-9231-6A162D1E4B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE7FBB-7838-4F50-8F42-947A105B6E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -635,9 +635,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>BISCOITO - ROSQUINHA</t>
-  </si>
-  <si>
     <t>S030006</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>BISCOITO - DOCE</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,16 +1200,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,13 +1284,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>186</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D11" s="4">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,13 +1592,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>188</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>186</v>
@@ -2194,13 +2194,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>186</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>188</v>
@@ -2399,7 +2399,7 @@
         <v>96</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,13 +2460,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>186</v>
@@ -2801,18 +2801,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D8 A10:D116">
+  <conditionalFormatting sqref="A2:D10 A12:D116">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9">
+  <conditionalFormatting sqref="A11:D11">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
+      <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAE7FBB-7838-4F50-8F42-947A105B6E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532A1B1F-B3F9-478A-BEAB-B5A31D6DEE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="225">
   <si>
     <t>Complemento</t>
   </si>
@@ -473,12 +473,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>ENVELOPE A4 - NATURAL - NATURAL</t>
-  </si>
-  <si>
     <t>S020041</t>
   </si>
   <si>
@@ -708,6 +699,21 @@
   </si>
   <si>
     <t>BISCOITO - DOCE</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 - OURO - OURO</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -815,7 +821,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1158,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1186,13 +1201,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1200,16 +1215,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1232,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>130</v>
@@ -1231,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1245,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1259,7 +1274,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>128</v>
@@ -1270,13 +1285,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1284,27 +1299,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1312,13 +1327,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1329,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1343,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1357,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1371,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1385,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1396,13 +1411,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1413,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1427,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1438,13 +1453,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1455,7 +1470,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1469,7 +1484,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1480,10 +1495,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -1497,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1511,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1525,7 +1540,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1539,7 +1554,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>132</v>
@@ -1550,10 +1565,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>132</v>
@@ -1567,7 +1582,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1578,10 +1593,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1592,13 +1607,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1609,7 +1624,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1620,13 +1635,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1637,7 +1652,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1648,13 +1663,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1665,7 +1680,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1676,16 +1691,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
@@ -1707,7 +1722,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1718,16 +1733,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="4">
-        <v>13</v>
+        <v>159</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,7 +1750,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1749,7 +1764,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1763,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>46</v>
@@ -1777,7 +1792,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>48</v>
@@ -1791,7 +1806,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1805,7 +1820,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>48</v>
@@ -1819,7 +1834,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>48</v>
@@ -1830,13 +1845,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1844,13 +1859,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="4">
         <v>471</v>
@@ -1861,7 +1876,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>53</v>
@@ -1875,7 +1890,7 @@
         <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1886,16 +1901,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,7 +1918,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>56</v>
@@ -1917,7 +1932,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>58</v>
@@ -1931,7 +1946,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>60</v>
@@ -1945,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>62</v>
@@ -1956,13 +1971,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1973,7 +1988,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>64</v>
@@ -1987,7 +2002,7 @@
         <v>133</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>134</v>
@@ -2001,7 +2016,7 @@
         <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>139</v>
@@ -2015,7 +2030,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>66</v>
@@ -2029,7 +2044,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>68</v>
@@ -2043,7 +2058,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>70</v>
@@ -2057,7 +2072,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>70</v>
@@ -2071,7 +2086,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>73</v>
@@ -2085,7 +2100,7 @@
         <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>75</v>
@@ -2099,7 +2114,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>77</v>
@@ -2113,7 +2128,7 @@
         <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>77</v>
@@ -2127,7 +2142,7 @@
         <v>135</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>136</v>
@@ -2138,10 +2153,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>136</v>
@@ -2155,7 +2170,7 @@
         <v>137</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>136</v>
@@ -2169,7 +2184,7 @@
         <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>80</v>
@@ -2183,7 +2198,7 @@
         <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>82</v>
@@ -2194,27 +2209,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2222,13 +2237,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2239,7 +2254,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>84</v>
@@ -2250,16 +2265,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,7 +2282,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>86</v>
@@ -2278,13 +2293,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2295,7 +2310,7 @@
         <v>87</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>88</v>
@@ -2309,7 +2324,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>88</v>
@@ -2320,10 +2335,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>90</v>
@@ -2337,7 +2352,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>92</v>
@@ -2351,7 +2366,7 @@
         <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>94</v>
@@ -2365,7 +2380,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>96</v>
@@ -2379,7 +2394,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>96</v>
@@ -2390,16 +2405,16 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,7 +2422,7 @@
         <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>99</v>
@@ -2421,7 +2436,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>99</v>
@@ -2435,7 +2450,7 @@
         <v>103</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>102</v>
@@ -2449,7 +2464,7 @@
         <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>102</v>
@@ -2460,16 +2475,16 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,7 +2492,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>105</v>
@@ -2488,13 +2503,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2505,7 +2520,7 @@
         <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>107</v>
@@ -2516,13 +2531,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2533,7 +2548,7 @@
         <v>108</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>109</v>
@@ -2547,7 +2562,7 @@
         <v>110</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>111</v>
@@ -2561,7 +2576,7 @@
         <v>140</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>141</v>
@@ -2575,7 +2590,7 @@
         <v>112</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>113</v>
@@ -2589,7 +2604,7 @@
         <v>114</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>113</v>
@@ -2603,7 +2618,7 @@
         <v>115</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>116</v>
@@ -2617,7 +2632,7 @@
         <v>117</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>116</v>
@@ -2631,7 +2646,7 @@
         <v>118</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>116</v>
@@ -2645,7 +2660,7 @@
         <v>119</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>120</v>
@@ -2659,7 +2674,7 @@
         <v>121</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>120</v>
@@ -2673,7 +2688,7 @@
         <v>122</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>120</v>
@@ -2687,7 +2702,7 @@
         <v>123</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>124</v>
@@ -2698,13 +2713,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2712,13 +2727,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2726,13 +2741,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2743,7 +2758,7 @@
         <v>142</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>143</v>
@@ -2754,27 +2769,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D114" s="5">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D115" s="4">
         <v>15</v>
@@ -2785,7 +2800,7 @@
         <v>125</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>126</v>
@@ -2801,18 +2816,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D10 A12:D116">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D39 A41:D113 A115:D116">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:D11">
+  <conditionalFormatting sqref="A40:D40">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A40))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:D114">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A11))&gt;0</formula>
+      <formula>LEN(TRIM(A114))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532A1B1F-B3F9-478A-BEAB-B5A31D6DEE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AF4303-F3EE-4728-8825-08DB2D4C7FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -714,6 +708,12 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -821,16 +821,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1173,9 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:D114"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1190,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1201,13 +1190,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1215,27 +1204,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1246,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1260,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1271,13 +1260,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1285,13 +1274,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1299,27 +1288,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1327,13 +1316,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1344,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1358,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1372,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1386,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1400,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1411,13 +1400,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1428,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1442,7 +1431,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1453,13 +1442,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1470,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1484,7 +1473,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1495,10 +1484,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -1512,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1526,7 +1515,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1540,7 +1529,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1551,13 +1540,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D27" s="5">
         <v>904</v>
@@ -1565,13 +1554,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="4">
         <v>903</v>
@@ -1582,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1593,10 +1582,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1607,13 +1596,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1624,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1635,13 +1624,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1652,7 +1641,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1663,13 +1652,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1680,7 +1669,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1691,16 +1680,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,7 +1697,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
@@ -1722,7 +1711,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1733,16 +1722,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1764,7 +1753,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
@@ -1778,7 +1767,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>46</v>
@@ -1792,7 +1781,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>48</v>
@@ -1806,7 +1795,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>48</v>
@@ -1820,7 +1809,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>48</v>
@@ -1834,7 +1823,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>48</v>
@@ -1845,13 +1834,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1859,97 +1848,97 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="D49" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="D50" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>183</v>
+        <v>53</v>
+      </c>
+      <c r="D52" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" s="4">
         <v>80</v>
@@ -1957,55 +1946,55 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" s="4">
-        <v>835</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="5">
+        <v>174</v>
+      </c>
+      <c r="D58" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -2013,55 +2002,55 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="4">
+        <v>133</v>
+      </c>
+      <c r="D60" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="D61" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D62" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2069,181 +2058,181 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D68" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>183</v>
+        <v>82</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2251,55 +2240,55 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="D77" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>201</v>
+        <v>84</v>
+      </c>
+      <c r="D78" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2307,55 +2296,55 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="D81" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D82" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D83" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D84" s="4">
         <v>553</v>
@@ -2363,13 +2352,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D85" s="4">
         <v>395</v>
@@ -2377,13 +2366,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D86" s="4">
         <v>86</v>
@@ -2391,13 +2380,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D87" s="4">
         <v>87</v>
@@ -2405,27 +2394,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D89" s="4">
         <v>55</v>
@@ -2433,13 +2422,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90" s="4">
         <v>54</v>
@@ -2447,13 +2436,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D91" s="5">
         <v>994</v>
@@ -2461,13 +2450,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D92" s="5">
         <v>695</v>
@@ -2475,27 +2464,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2503,13 +2492,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2517,13 +2506,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2531,13 +2520,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2545,13 +2534,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D98" s="4">
         <v>53</v>
@@ -2559,13 +2548,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D99" s="4">
         <v>107</v>
@@ -2573,13 +2562,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D100" s="4">
         <v>918</v>
@@ -2587,13 +2576,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D101" s="4">
         <v>449</v>
@@ -2601,13 +2590,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D102" s="4">
         <v>704</v>
@@ -2615,13 +2604,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D103" s="4">
         <v>170</v>
@@ -2629,13 +2618,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D104" s="5">
         <v>163</v>
@@ -2643,13 +2632,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="5">
         <v>799</v>
@@ -2657,13 +2646,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D106" s="5">
         <v>160</v>
@@ -2671,13 +2660,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D107" s="5">
         <v>569</v>
@@ -2685,13 +2674,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D108" s="5">
         <v>762</v>
@@ -2699,13 +2688,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D109" s="4">
         <v>211</v>
@@ -2713,13 +2702,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2727,13 +2716,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2741,13 +2730,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2755,13 +2744,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2769,27 +2758,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D115" s="4">
         <v>15</v>
@@ -2797,13 +2786,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2816,23 +2805,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="35">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D39 A41:D113 A115:D116">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D82 A84:D116">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:D40">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A40))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114:D114">
+  <conditionalFormatting sqref="A83:D83">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A114))&gt;0</formula>
+      <formula>LEN(TRIM(A83))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AF4303-F3EE-4728-8825-08DB2D4C7FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F5260-EBAC-4087-B961-9B5F09549B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -714,6 +711,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1179,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1190,13 +1192,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1204,27 +1206,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1235,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1249,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1260,13 +1262,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1274,13 +1276,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1288,27 +1290,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1316,13 +1318,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1333,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1347,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1361,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1375,7 +1377,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1389,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1400,13 +1402,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1417,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1431,7 +1433,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1442,13 +1444,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1459,7 +1461,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1473,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1484,10 +1486,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -1501,7 +1503,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1515,7 +1517,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1529,7 +1531,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1540,13 +1542,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D27" s="5">
         <v>904</v>
@@ -1554,13 +1556,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4">
         <v>903</v>
@@ -1571,7 +1573,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1582,10 +1584,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1596,13 +1598,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1613,7 +1615,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1624,13 +1626,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1641,7 +1643,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1652,13 +1654,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1669,7 +1671,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1680,16 +1682,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
@@ -1711,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1722,16 +1724,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,7 +1741,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1750,27 +1752,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1778,13 +1780,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D44" s="5">
         <v>899</v>
@@ -1792,13 +1794,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="5">
         <v>896</v>
@@ -1806,13 +1808,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="5">
         <v>900</v>
@@ -1820,13 +1822,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="5">
         <v>898</v>
@@ -1834,13 +1836,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1848,13 +1850,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1862,13 +1864,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1876,13 +1878,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D51" s="4">
         <v>166</v>
@@ -1890,13 +1892,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4">
         <v>167</v>
@@ -1904,27 +1906,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1932,13 +1934,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D55" s="4">
         <v>80</v>
@@ -1946,13 +1948,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D56" s="4">
         <v>80</v>
@@ -1960,13 +1962,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D57" s="4">
         <v>835</v>
@@ -1974,13 +1976,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1988,13 +1990,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -2002,13 +2004,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -2016,13 +2018,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2030,13 +2032,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D62" s="4">
         <v>40</v>
@@ -2044,13 +2046,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2058,13 +2060,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D64" s="4">
         <v>103</v>
@@ -2072,13 +2074,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="4">
         <v>910</v>
@@ -2086,13 +2088,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2100,13 +2102,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D67" s="4">
         <v>745</v>
@@ -2114,13 +2116,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2128,13 +2130,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2142,13 +2144,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2156,13 +2158,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2170,13 +2172,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2184,13 +2186,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2198,13 +2200,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2212,27 +2214,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2240,13 +2242,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2254,13 +2256,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D78" s="4">
         <v>211</v>
@@ -2268,27 +2270,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2296,13 +2298,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2310,13 +2312,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D82" s="4">
         <v>820</v>
@@ -2324,13 +2326,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" s="4">
         <v>819</v>
@@ -2338,13 +2340,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D84" s="4">
         <v>553</v>
@@ -2352,13 +2354,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D85" s="4">
         <v>395</v>
@@ -2366,13 +2368,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D86" s="4">
         <v>86</v>
@@ -2380,13 +2382,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D87" s="4">
         <v>87</v>
@@ -2394,27 +2396,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D89" s="4">
         <v>55</v>
@@ -2422,13 +2424,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D90" s="4">
         <v>54</v>
@@ -2436,13 +2438,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" s="5">
         <v>994</v>
@@ -2450,13 +2452,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D92" s="5">
         <v>695</v>
@@ -2464,27 +2466,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2492,13 +2494,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2506,13 +2508,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2520,13 +2522,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2534,13 +2536,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D98" s="4">
         <v>53</v>
@@ -2548,13 +2550,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D99" s="4">
         <v>107</v>
@@ -2562,13 +2564,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D100" s="4">
         <v>918</v>
@@ -2576,13 +2578,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D101" s="4">
         <v>449</v>
@@ -2590,13 +2592,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>704</v>
@@ -2604,13 +2606,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D103" s="4">
         <v>170</v>
@@ -2618,13 +2620,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" s="5">
         <v>163</v>
@@ -2632,13 +2634,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D105" s="5">
         <v>799</v>
@@ -2646,13 +2648,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D106" s="5">
         <v>160</v>
@@ -2660,13 +2662,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D107" s="5">
         <v>569</v>
@@ -2674,13 +2676,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D108" s="5">
         <v>762</v>
@@ -2688,13 +2690,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D109" s="4">
         <v>211</v>
@@ -2702,13 +2704,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2716,13 +2718,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2730,13 +2732,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2744,13 +2746,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2758,27 +2760,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D115" s="4">
         <v>15</v>
@@ -2786,13 +2788,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2805,18 +2807,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D82 A84:D116">
+  <conditionalFormatting sqref="A2:D41 A43:D116">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:D83">
+  <conditionalFormatting sqref="A42:D42">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A83))&gt;0</formula>
+      <formula>LEN(TRIM(A42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F5260-EBAC-4087-B961-9B5F09549B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF873775-4183-4169-8CE3-1185B82556BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -293,9 +293,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -449,12 +446,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -671,9 +662,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -714,6 +702,18 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1164,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1192,13 +1201,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1206,27 +1215,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1237,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1251,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1262,13 +1271,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1276,13 +1285,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1290,27 +1299,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1318,13 +1327,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1335,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1349,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1363,7 +1372,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1377,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1391,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1402,13 +1411,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1419,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1433,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1444,13 +1453,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1461,7 +1470,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1475,7 +1484,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1486,10 +1495,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -1503,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1517,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1531,7 +1540,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1542,13 +1551,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D27" s="5">
         <v>904</v>
@@ -1556,13 +1565,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="4">
         <v>903</v>
@@ -1573,7 +1582,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1584,10 +1593,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1598,13 +1607,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1615,7 +1624,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1626,16 +1635,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1652,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1654,13 +1663,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1671,7 +1680,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1682,16 +1691,16 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
@@ -1713,7 +1722,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>40</v>
@@ -1724,16 +1733,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1741,7 +1750,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
@@ -1752,10 +1761,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>43</v>
@@ -1769,7 +1778,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>45</v>
@@ -1783,7 +1792,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>47</v>
@@ -1797,7 +1806,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>47</v>
@@ -1811,7 +1820,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1825,7 +1834,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1836,13 +1845,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1850,13 +1859,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1864,13 +1873,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1881,7 +1890,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>52</v>
@@ -1895,7 +1904,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>52</v>
@@ -1906,16 +1915,16 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1923,7 +1932,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>55</v>
@@ -1937,7 +1946,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>57</v>
@@ -1951,7 +1960,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>59</v>
@@ -1965,7 +1974,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
@@ -1976,13 +1985,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1993,7 +2002,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>63</v>
@@ -2004,13 +2013,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -2018,16 +2027,16 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2044,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>65</v>
@@ -2049,7 +2058,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>67</v>
@@ -2063,7 +2072,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>69</v>
@@ -2077,7 +2086,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>69</v>
@@ -2091,7 +2100,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>72</v>
@@ -2105,7 +2114,7 @@
         <v>73</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>74</v>
@@ -2119,7 +2128,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>76</v>
@@ -2133,7 +2142,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>76</v>
@@ -2144,13 +2153,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2158,13 +2167,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2172,13 +2181,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2189,7 +2198,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>79</v>
@@ -2203,7 +2212,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>81</v>
@@ -2214,27 +2223,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2242,13 +2251,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2259,7 +2268,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>83</v>
@@ -2270,41 +2279,41 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2312,13 +2321,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D82" s="4">
         <v>820</v>
@@ -2326,13 +2335,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D83" s="4">
         <v>819</v>
@@ -2340,13 +2349,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D84" s="4">
         <v>553</v>
@@ -2354,13 +2363,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D85" s="4">
         <v>395</v>
@@ -2368,13 +2377,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D86" s="4">
         <v>86</v>
@@ -2382,13 +2391,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="4">
         <v>87</v>
@@ -2396,27 +2405,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D89" s="4">
         <v>55</v>
@@ -2424,13 +2433,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="4">
         <v>54</v>
@@ -2438,13 +2447,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="5">
         <v>994</v>
@@ -2452,13 +2461,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D92" s="5">
         <v>695</v>
@@ -2466,27 +2475,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2494,13 +2503,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2508,13 +2517,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2522,13 +2531,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2536,13 +2545,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D98" s="4">
         <v>53</v>
@@ -2550,13 +2559,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D99" s="4">
         <v>107</v>
@@ -2564,13 +2573,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D100" s="4">
         <v>918</v>
@@ -2578,13 +2587,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D101" s="4">
         <v>449</v>
@@ -2592,13 +2601,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D102" s="4">
         <v>704</v>
@@ -2606,13 +2615,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D103" s="4">
         <v>170</v>
@@ -2620,13 +2629,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" s="5">
         <v>163</v>
@@ -2634,13 +2643,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" s="5">
         <v>799</v>
@@ -2648,13 +2657,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D106" s="5">
         <v>160</v>
@@ -2662,13 +2671,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D107" s="5">
         <v>569</v>
@@ -2676,13 +2685,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" s="5">
         <v>762</v>
@@ -2690,13 +2699,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D109" s="4">
         <v>211</v>
@@ -2704,13 +2713,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2718,13 +2727,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2732,13 +2741,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2746,13 +2755,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2760,27 +2769,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D115" s="4">
         <v>15</v>
@@ -2788,13 +2797,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2807,18 +2816,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="3" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D41 A43:D116">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D32 A62:D116 A34:D60">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42">
+  <conditionalFormatting sqref="A61:D61">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A61))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:D33">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A42))&gt;0</formula>
+      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF873775-4183-4169-8CE3-1185B82556BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F143BD4-563B-42ED-8013-5998D0C2266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="222">
   <si>
     <t>Complemento</t>
   </si>
@@ -146,18 +146,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -245,15 +233,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -566,12 +548,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -611,9 +587,6 @@
     <t>S030006</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -714,6 +687,24 @@
   </si>
   <si>
     <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -821,25 +812,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1173,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1201,13 +1174,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1215,27 +1188,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1246,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1260,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1271,13 +1244,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1285,13 +1258,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1299,27 +1272,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1327,13 +1300,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1344,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1358,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -1372,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -1386,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1400,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1411,13 +1384,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1428,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1442,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -1453,13 +1426,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1470,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -1484,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1495,10 +1468,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>21</v>
@@ -1512,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
@@ -1526,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
@@ -1540,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>28</v>
@@ -1551,13 +1524,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D27" s="5">
         <v>904</v>
@@ -1565,13 +1538,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D28" s="4">
         <v>903</v>
@@ -1582,7 +1555,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>30</v>
@@ -1593,10 +1566,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
@@ -1607,13 +1580,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1624,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
@@ -1635,13 +1608,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1652,7 +1625,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1663,69 +1636,69 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>177</v>
+        <v>145</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1733,27 +1706,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1761,13 +1734,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4">
         <v>1159</v>
@@ -1775,13 +1748,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1789,13 +1762,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D44" s="5">
         <v>899</v>
@@ -1803,13 +1776,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D45" s="5">
         <v>896</v>
@@ -1817,13 +1790,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D46" s="5">
         <v>900</v>
@@ -1831,13 +1804,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D47" s="5">
         <v>898</v>
@@ -1845,13 +1818,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1859,13 +1832,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1873,13 +1846,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1887,13 +1860,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4">
         <v>166</v>
@@ -1901,13 +1874,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D52" s="4">
         <v>167</v>
@@ -1915,27 +1888,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1943,13 +1916,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D55" s="4">
         <v>80</v>
@@ -1957,13 +1930,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D56" s="4">
         <v>80</v>
@@ -1971,13 +1944,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D57" s="4">
         <v>835</v>
@@ -1985,13 +1958,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1999,13 +1972,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -2013,13 +1986,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -2027,13 +2000,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D61" s="4">
         <v>1163</v>
@@ -2041,13 +2014,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4">
         <v>40</v>
@@ -2055,13 +2028,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2069,13 +2042,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4">
         <v>103</v>
@@ -2083,13 +2056,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D65" s="4">
         <v>910</v>
@@ -2097,13 +2070,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2111,13 +2084,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D67" s="4">
         <v>745</v>
@@ -2125,13 +2098,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2139,13 +2112,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2153,13 +2126,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2167,13 +2140,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2181,13 +2154,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2195,13 +2168,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2209,13 +2182,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2223,27 +2196,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2251,13 +2224,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2265,13 +2238,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D78" s="4">
         <v>211</v>
@@ -2279,27 +2252,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>1166</v>
@@ -2307,13 +2280,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2321,13 +2294,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D82" s="4">
         <v>820</v>
@@ -2335,13 +2308,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D83" s="4">
         <v>819</v>
@@ -2349,13 +2322,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4">
         <v>553</v>
@@ -2363,13 +2336,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D85" s="4">
         <v>395</v>
@@ -2377,13 +2350,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D86" s="4">
         <v>86</v>
@@ -2391,13 +2364,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D87" s="4">
         <v>87</v>
@@ -2405,27 +2378,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
         <v>55</v>
@@ -2433,13 +2406,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D90" s="4">
         <v>54</v>
@@ -2447,13 +2420,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D91" s="5">
         <v>994</v>
@@ -2461,13 +2434,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D92" s="5">
         <v>695</v>
@@ -2475,27 +2448,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2503,13 +2476,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2517,13 +2490,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2531,13 +2504,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2545,13 +2518,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D98" s="4">
         <v>53</v>
@@ -2559,13 +2532,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D99" s="4">
         <v>107</v>
@@ -2573,13 +2546,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D100" s="4">
         <v>918</v>
@@ -2587,13 +2560,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D101" s="4">
         <v>449</v>
@@ -2601,13 +2574,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D102" s="4">
         <v>704</v>
@@ -2615,13 +2588,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D103" s="4">
         <v>170</v>
@@ -2629,13 +2602,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D104" s="5">
         <v>163</v>
@@ -2643,13 +2616,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D105" s="5">
         <v>799</v>
@@ -2657,13 +2630,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D106" s="5">
         <v>160</v>
@@ -2671,13 +2644,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D107" s="5">
         <v>569</v>
@@ -2685,13 +2658,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D108" s="5">
         <v>762</v>
@@ -2699,13 +2672,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D109" s="4">
         <v>211</v>
@@ -2713,13 +2686,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2727,13 +2700,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2741,13 +2714,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2755,13 +2728,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2769,27 +2742,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D115" s="4">
         <v>15</v>
@@ -2797,13 +2770,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2816,23 +2789,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="39">
+    <cfRule type="expression" dxfId="1" priority="40">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D32 A62:D116 A34:D60">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D116">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:D61">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A61))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:D33">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F143BD4-563B-42ED-8013-5998D0C2266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B0164-EFC9-466D-9756-336A6A8C500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -248,24 +242,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -419,15 +404,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -488,9 +467,6 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -542,9 +518,6 @@
     <t>S010034</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -705,6 +678,33 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1147,7 +1192,7 @@
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:A65"/>
+      <selection activeCell="A74" sqref="A74:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1174,13 +1219,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1188,27 +1233,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -1216,13 +1261,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>105</v>
@@ -1230,13 +1275,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>103</v>
@@ -1244,13 +1289,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1258,13 +1303,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1272,27 +1317,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1300,13 +1345,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1314,13 +1359,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D12" s="5">
         <v>809</v>
@@ -1328,13 +1373,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D13" s="5">
         <v>1045</v>
@@ -1342,13 +1387,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>103</v>
@@ -1356,13 +1401,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>33</v>
@@ -1370,13 +1415,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D16" s="4">
         <v>31</v>
@@ -1384,13 +1429,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1398,13 +1443,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>20</v>
@@ -1412,13 +1457,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1426,13 +1471,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1440,13 +1485,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -1454,13 +1499,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -1468,13 +1513,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
@@ -1482,13 +1527,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1496,13 +1541,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1510,13 +1555,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D26" s="4">
         <v>52</v>
@@ -1524,13 +1569,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D27" s="5">
         <v>904</v>
@@ -1538,13 +1583,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="4">
         <v>903</v>
@@ -1552,13 +1597,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D29" s="4">
         <v>108</v>
@@ -1566,13 +1611,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4">
         <v>100</v>
@@ -1580,13 +1625,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1594,13 +1639,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D32" s="4">
         <v>107</v>
@@ -1608,13 +1653,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1622,13 +1667,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D34" s="4">
         <v>103</v>
@@ -1636,13 +1681,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1650,13 +1695,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1664,13 +1709,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1678,13 +1723,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1692,13 +1737,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1706,27 +1751,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1734,13 +1779,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="4">
         <v>1159</v>
@@ -1748,13 +1793,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1762,13 +1807,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D44" s="5">
         <v>899</v>
@@ -1776,13 +1821,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5">
         <v>896</v>
@@ -1790,13 +1835,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="5">
         <v>900</v>
@@ -1804,13 +1849,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="5">
         <v>898</v>
@@ -1818,13 +1863,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1832,13 +1877,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1846,13 +1891,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1860,13 +1905,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D51" s="4">
         <v>166</v>
@@ -1874,13 +1919,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="4">
         <v>167</v>
@@ -1888,41 +1933,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" s="4">
         <v>80</v>
@@ -1930,13 +1975,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4">
         <v>80</v>
@@ -1944,13 +1989,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="4">
         <v>835</v>
@@ -1958,13 +2003,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1972,13 +2017,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -1986,13 +2031,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D60" s="5">
         <v>1</v>
@@ -2000,13 +2045,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D61" s="4">
         <v>1163</v>
@@ -2014,13 +2059,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D62" s="4">
         <v>40</v>
@@ -2028,13 +2073,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2042,13 +2087,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="4">
         <v>103</v>
@@ -2056,13 +2101,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D65" s="4">
         <v>910</v>
@@ -2070,13 +2115,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2084,13 +2129,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4">
         <v>745</v>
@@ -2098,13 +2143,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2112,13 +2157,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2126,13 +2171,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2140,13 +2185,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2154,13 +2199,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2168,13 +2213,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2182,13 +2227,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2196,27 +2241,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2224,13 +2269,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2238,13 +2283,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D78" s="4">
         <v>211</v>
@@ -2252,27 +2297,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D80" s="4">
         <v>1166</v>
@@ -2280,27 +2325,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D82" s="4">
         <v>820</v>
@@ -2308,13 +2353,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D83" s="4">
         <v>819</v>
@@ -2322,13 +2367,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D84" s="4">
         <v>553</v>
@@ -2336,13 +2381,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D85" s="4">
         <v>395</v>
@@ -2350,13 +2395,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D86" s="4">
         <v>86</v>
@@ -2364,13 +2409,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D87" s="4">
         <v>87</v>
@@ -2378,27 +2423,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D89" s="4">
         <v>55</v>
@@ -2406,13 +2451,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D90" s="4">
         <v>54</v>
@@ -2420,13 +2465,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D91" s="5">
         <v>994</v>
@@ -2434,13 +2479,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D92" s="5">
         <v>695</v>
@@ -2448,27 +2493,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2476,13 +2521,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2490,13 +2535,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2504,13 +2549,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2518,13 +2563,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D98" s="4">
         <v>53</v>
@@ -2532,13 +2577,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D99" s="4">
         <v>107</v>
@@ -2546,13 +2591,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D100" s="4">
         <v>918</v>
@@ -2560,13 +2605,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D101" s="4">
         <v>449</v>
@@ -2574,13 +2619,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D102" s="4">
         <v>704</v>
@@ -2588,13 +2633,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D103" s="4">
         <v>170</v>
@@ -2602,13 +2647,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D104" s="5">
         <v>163</v>
@@ -2616,13 +2661,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D105" s="5">
         <v>799</v>
@@ -2630,13 +2675,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D106" s="5">
         <v>160</v>
@@ -2644,13 +2689,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D107" s="5">
         <v>569</v>
@@ -2658,13 +2703,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D108" s="5">
         <v>762</v>
@@ -2672,13 +2717,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D109" s="4">
         <v>211</v>
@@ -2686,13 +2731,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2700,13 +2745,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2714,13 +2759,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2728,13 +2773,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2742,27 +2787,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D115" s="4">
         <v>15</v>
@@ -2770,13 +2815,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2789,13 +2834,38 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule type="expression" dxfId="6" priority="45">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D116">
+  <conditionalFormatting sqref="A2:D4 A82:D116 A75:D80 B74:D74 A73:D73 B70:D72 A55:D69 A6:D53">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D81">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A81))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A74))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A72">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:D54">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:D5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B0164-EFC9-466D-9756-336A6A8C500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0041D-CF6F-4687-896B-6835011FE08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="220">
   <si>
     <t>Complemento</t>
   </si>
@@ -506,18 +506,6 @@
     <t>S110003</t>
   </si>
   <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -611,12 +599,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
     <t>AVENTAL C/ MANGA - UNICA</t>
   </si>
   <si>
@@ -705,6 +687,18 @@
   </si>
   <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -812,52 +806,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1191,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:D74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1222,7 +1171,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>127</v>
@@ -1233,16 +1182,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,7 +1199,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>116</v>
@@ -1261,30 +1210,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>221</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,7 +1241,7 @@
         <v>113</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>114</v>
@@ -1306,7 +1255,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>134</v>
@@ -1317,16 +1266,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,7 +1283,7 @@
         <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>154</v>
@@ -1345,13 +1294,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1362,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1376,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1390,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1404,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1418,7 +1367,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1432,7 +1381,7 @@
         <v>128</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>129</v>
@@ -1446,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -1460,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1474,7 +1423,7 @@
         <v>136</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>152</v>
@@ -1488,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1502,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1516,7 +1465,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1530,7 +1479,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>23</v>
@@ -1544,7 +1493,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1558,7 +1507,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1572,7 +1521,7 @@
         <v>117</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>118</v>
@@ -1586,7 +1535,7 @@
         <v>137</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>118</v>
@@ -1600,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1614,7 +1563,7 @@
         <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1625,13 +1574,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1642,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1653,13 +1602,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1670,7 +1619,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>33</v>
@@ -1681,10 +1630,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>138</v>
@@ -1695,10 +1644,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>138</v>
@@ -1709,10 +1658,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>138</v>
@@ -1723,10 +1672,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>138</v>
@@ -1740,7 +1689,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1751,16 +1700,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,7 +1717,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1779,10 +1728,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -1796,7 +1745,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1810,7 +1759,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1824,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1838,7 +1787,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1852,7 +1801,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>42</v>
@@ -1866,7 +1815,7 @@
         <v>139</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>140</v>
@@ -1877,13 +1826,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1894,7 +1843,7 @@
         <v>131</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>132</v>
@@ -1908,7 +1857,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>47</v>
@@ -1922,7 +1871,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1933,24 +1882,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1964,7 +1913,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>51</v>
@@ -1978,7 +1927,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>53</v>
@@ -1992,7 +1941,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -2003,27 +1952,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="4">
+        <v>57</v>
+      </c>
+      <c r="D58" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -2031,55 +1980,55 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="5">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1163</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2087,198 +2036,198 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D65" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D71" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="D72" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="4">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>160</v>
+        <v>217</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D76" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="D77" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,7 +2235,7 @@
         <v>71</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>72</v>
@@ -2297,24 +2246,24 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>73</v>
@@ -2325,13 +2274,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D81" s="4">
         <v>1167</v>
@@ -2342,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>75</v>
@@ -2356,7 +2305,7 @@
         <v>76</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>75</v>
@@ -2370,7 +2319,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>78</v>
@@ -2384,7 +2333,7 @@
         <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>80</v>
@@ -2398,7 +2347,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>82</v>
@@ -2412,7 +2361,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>82</v>
@@ -2423,16 +2372,16 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,7 +2389,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>85</v>
@@ -2454,7 +2403,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>85</v>
@@ -2468,7 +2417,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>88</v>
@@ -2482,7 +2431,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>88</v>
@@ -2493,16 +2442,16 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,7 +2459,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>91</v>
@@ -2524,7 +2473,7 @@
         <v>142</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>143</v>
@@ -2538,7 +2487,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>93</v>
@@ -2549,13 +2498,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2566,7 +2515,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>95</v>
@@ -2580,7 +2529,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>97</v>
@@ -2594,7 +2543,7 @@
         <v>122</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>123</v>
@@ -2608,7 +2557,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>99</v>
@@ -2622,7 +2571,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>99</v>
@@ -2636,7 +2585,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>102</v>
@@ -2650,7 +2599,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>102</v>
@@ -2664,7 +2613,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>102</v>
@@ -2678,7 +2627,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>106</v>
@@ -2692,7 +2641,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>106</v>
@@ -2706,7 +2655,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>106</v>
@@ -2720,7 +2669,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>110</v>
@@ -2734,7 +2683,7 @@
         <v>146</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>147</v>
@@ -2748,7 +2697,7 @@
         <v>148</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>149</v>
@@ -2762,7 +2711,7 @@
         <v>144</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>145</v>
@@ -2776,7 +2725,7 @@
         <v>124</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>125</v>
@@ -2787,16 +2736,16 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,7 +2753,7 @@
         <v>151</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>150</v>
@@ -2818,7 +2767,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>112</v>
@@ -2834,38 +2783,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="6" priority="45">
+    <cfRule type="expression" dxfId="1" priority="45">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D4 A82:D116 A75:D80 B74:D74 A73:D73 B70:D72 A55:D69 A6:D53">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A2:D116">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D81">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A81))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A74))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A72">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:D54">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D5">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0041D-CF6F-4687-896B-6835011FE08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD714CC-08AE-4667-A1A8-D860F24CB291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="221">
   <si>
     <t>Complemento</t>
   </si>
@@ -242,9 +242,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -386,9 +383,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -668,21 +659,6 @@
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -699,6 +675,33 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>S080024</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1138,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:D77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1168,13 +1207,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1182,30 +1221,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1224,10 +1263,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1238,13 +1277,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1252,13 +1291,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1266,27 +1305,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1294,13 +1333,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1311,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1325,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1339,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1353,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1367,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1378,13 +1417,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1395,7 +1434,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -1409,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1420,13 +1459,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1437,7 +1476,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1451,7 +1490,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1462,10 +1501,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1479,7 +1518,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>23</v>
@@ -1493,7 +1532,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1507,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1518,13 +1557,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" s="5">
         <v>904</v>
@@ -1532,13 +1571,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" s="4">
         <v>903</v>
@@ -1549,7 +1588,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1560,10 +1599,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1574,13 +1613,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1591,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1602,13 +1641,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1619,7 +1658,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>33</v>
@@ -1630,13 +1669,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1644,13 +1683,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1658,13 +1697,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1672,13 +1711,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1689,7 +1728,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1700,16 +1739,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,7 +1756,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1728,16 +1767,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1745,7 +1784,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1759,7 +1798,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1773,7 +1812,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1787,7 +1826,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1801,7 +1840,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>42</v>
@@ -1812,13 +1851,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1826,13 +1865,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1840,13 +1879,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1857,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>47</v>
@@ -1871,7 +1910,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1882,24 +1921,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1913,7 +1952,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>51</v>
@@ -1927,7 +1966,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>53</v>
@@ -1941,7 +1980,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1955,7 +1994,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1966,13 +2005,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -1980,13 +2019,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D60" s="4">
         <v>1163</v>
@@ -1997,7 +2036,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -2011,7 +2050,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>61</v>
@@ -2022,10 +2061,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -2036,10 +2075,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>62</v>
@@ -2053,7 +2092,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
@@ -2067,7 +2106,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2078,13 +2117,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2092,391 +2131,391 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="D68" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="D71" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>156</v>
+        <v>69</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1172</v>
+        <v>176</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D76" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D77" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="D78" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>173</v>
+        <v>71</v>
+      </c>
+      <c r="D79" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1166</v>
+        <v>169</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="D81" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D82" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D83" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D84" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D85" s="4">
-        <v>395</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D86" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>175</v>
+        <v>81</v>
+      </c>
+      <c r="D88" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="4">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" s="5">
-        <v>994</v>
+        <v>84</v>
+      </c>
+      <c r="D91" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D92" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>156</v>
+        <v>87</v>
+      </c>
+      <c r="D93" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="4">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2484,13 +2523,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2498,209 +2537,209 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="D97" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="D98" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D99" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D100" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D101" s="4">
-        <v>449</v>
+        <v>918</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" s="4">
-        <v>704</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D103" s="4">
-        <v>170</v>
+        <v>704</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D104" s="5">
-        <v>163</v>
+        <v>101</v>
+      </c>
+      <c r="D104" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D106" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D109" s="4">
-        <v>211</v>
+        <v>105</v>
+      </c>
+      <c r="D109" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D110" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2708,88 +2747,122 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D112" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D113" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>193</v>
+        <v>122</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="4">
-        <v>15</v>
+        <v>189</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116" s="4">
+      <c r="D117" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D115" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D116">
-      <sortCondition ref="A1:A115"/>
+  <autoFilter ref="A1:D116" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
+      <sortCondition ref="A1:A116"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="45">
+    <cfRule type="expression" dxfId="5" priority="51">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D116">
+  <conditionalFormatting sqref="A73:D117 A2:D69">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A72 C70:D72">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B71))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(B72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD714CC-08AE-4667-A1A8-D860F24CB291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB7CA1-F31A-491E-9E19-A261508F16C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
   <si>
     <t>Complemento</t>
   </si>
@@ -398,9 +398,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
@@ -476,12 +473,6 @@
     <t>S020007</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>S110036</t>
   </si>
   <si>
@@ -590,12 +581,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>BISCOITO - DOCE</t>
   </si>
   <si>
@@ -702,6 +687,15 @@
   </si>
   <si>
     <t>S080024</t>
+  </si>
+  <si>
+    <t>SACO DE LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
   </si>
 </sst>
 </file>
@@ -809,43 +803,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1177,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:D72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1207,13 +1165,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1221,24 +1179,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>114</v>
@@ -1252,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1263,10 +1221,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1280,7 +1238,7 @@
         <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>113</v>
@@ -1291,13 +1249,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1305,27 +1263,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>218</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1333,13 +1291,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1350,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1364,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1378,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1392,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1406,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1417,13 +1375,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1434,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -1448,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1459,13 +1417,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1476,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1490,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1501,10 +1459,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1518,7 +1476,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>23</v>
@@ -1532,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1546,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1560,7 +1518,7 @@
         <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>116</v>
@@ -1571,10 +1529,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>116</v>
@@ -1588,7 +1546,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1599,10 +1557,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1613,13 +1571,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1630,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1641,13 +1599,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1658,7 +1616,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>33</v>
@@ -1669,13 +1627,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1683,13 +1641,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1697,13 +1655,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1711,13 +1669,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1728,7 +1686,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1739,16 +1697,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1756,7 +1714,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1767,10 +1725,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -1784,7 +1742,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1798,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1812,7 +1770,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1826,7 +1784,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1840,7 +1798,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>42</v>
@@ -1851,13 +1809,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1865,13 +1823,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1879,13 +1837,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1896,7 +1854,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>47</v>
@@ -1910,7 +1868,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1921,24 +1879,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1952,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>51</v>
@@ -1966,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>53</v>
@@ -1980,7 +1938,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1994,7 +1952,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -2008,7 +1966,7 @@
         <v>117</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>118</v>
@@ -2019,16 +1977,16 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D60" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2036,7 +1994,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -2050,7 +2008,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>61</v>
@@ -2061,10 +2019,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -2075,10 +2033,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>62</v>
@@ -2092,7 +2050,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
@@ -2106,7 +2064,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2117,13 +2075,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2131,13 +2089,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2145,13 +2103,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2159,13 +2117,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2173,13 +2131,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2187,13 +2145,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2204,7 +2162,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>68</v>
@@ -2215,10 +2173,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>69</v>
@@ -2229,27 +2187,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D76" s="4">
         <v>1172</v>
@@ -2257,13 +2215,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D77" s="4">
         <v>1173</v>
@@ -2271,13 +2229,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D78" s="4">
         <v>1174</v>
@@ -2288,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>71</v>
@@ -2299,24 +2257,24 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>72</v>
@@ -2327,13 +2285,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D82" s="4">
         <v>1167</v>
@@ -2344,7 +2302,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>74</v>
@@ -2358,7 +2316,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>74</v>
@@ -2372,7 +2330,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>77</v>
@@ -2386,7 +2344,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>79</v>
@@ -2400,7 +2358,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>81</v>
@@ -2414,7 +2372,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>81</v>
@@ -2425,16 +2383,16 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,7 +2400,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>84</v>
@@ -2456,7 +2414,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>84</v>
@@ -2470,7 +2428,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>87</v>
@@ -2484,7 +2442,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>87</v>
@@ -2495,16 +2453,16 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,7 +2470,7 @@
         <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>90</v>
@@ -2523,13 +2481,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2540,7 +2498,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>92</v>
@@ -2551,13 +2509,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D98" s="4">
         <v>884</v>
@@ -2568,7 +2526,7 @@
         <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>94</v>
@@ -2582,7 +2540,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>96</v>
@@ -2593,16 +2551,16 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D101" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2568,7 @@
         <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>98</v>
@@ -2624,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>98</v>
@@ -2638,7 +2596,7 @@
         <v>100</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>101</v>
@@ -2652,7 +2610,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>101</v>
@@ -2666,7 +2624,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>101</v>
@@ -2680,7 +2638,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>105</v>
@@ -2694,7 +2652,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>105</v>
@@ -2708,7 +2666,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>105</v>
@@ -2722,7 +2680,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>109</v>
@@ -2733,13 +2691,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2747,122 +2705,88 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D112" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D113" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>190</v>
+        <v>144</v>
+      </c>
+      <c r="D115" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D116" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D117" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D116" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
-      <sortCondition ref="A1:A116"/>
+  <autoFilter ref="A1:D115" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D116">
+      <sortCondition ref="A1:A115"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="5" priority="51">
+    <cfRule type="expression" dxfId="1" priority="54">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:D117 A2:D69">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A2:D116">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A72 C70:D72">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B70))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(B71))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B72))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDB7CA1-F31A-491E-9E19-A261508F16C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5E2318-EB0B-43CC-A84F-20D5AAC7BF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
@@ -696,6 +690,12 @@
   </si>
   <si>
     <t>S080016</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:XFD112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1165,13 +1165,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1179,27 +1179,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1210,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1235,13 +1235,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D7" s="5">
         <v>53</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1277,13 +1277,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="5">
         <v>122</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="4">
         <v>829</v>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1322,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1350,7 +1350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1364,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1375,13 +1375,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1392,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -1406,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1417,13 +1417,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>20</v>
@@ -1448,7 +1448,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1476,7 +1476,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>23</v>
@@ -1490,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
@@ -1504,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1515,13 +1515,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D27" s="5">
         <v>904</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="4">
         <v>903</v>
@@ -1546,7 +1546,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
@@ -1557,10 +1557,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1599,13 +1599,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1616,7 +1616,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>33</v>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1641,13 +1641,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1686,7 +1686,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>38</v>
@@ -1742,7 +1742,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1756,7 +1756,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>42</v>
@@ -1770,7 +1770,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1784,7 +1784,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -1798,7 +1798,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>42</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1854,7 +1854,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>47</v>
@@ -1868,7 +1868,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1879,24 +1879,24 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>51</v>
@@ -1924,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>53</v>
@@ -1938,7 +1938,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
@@ -1952,7 +1952,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -1994,7 +1994,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -2008,7 +2008,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>61</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>62</v>
@@ -2050,7 +2050,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>64</v>
@@ -2064,7 +2064,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
@@ -2075,13 +2075,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2103,13 +2103,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2162,7 +2162,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>68</v>
@@ -2173,41 +2173,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D76" s="4">
         <v>1172</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D77" s="4">
         <v>1173</v>
@@ -2229,13 +2229,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D78" s="4">
         <v>1174</v>
@@ -2243,13 +2243,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D79" s="4">
         <v>211</v>
@@ -2257,41 +2257,41 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D81" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" s="4">
         <v>1167</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D83" s="4">
         <v>820</v>
@@ -2313,13 +2313,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="4">
         <v>819</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D85" s="4">
         <v>553</v>
@@ -2341,13 +2341,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D86" s="4">
         <v>395</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D87" s="4">
         <v>86</v>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D88" s="4">
         <v>87</v>
@@ -2383,27 +2383,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D90" s="4">
         <v>55</v>
@@ -2411,13 +2411,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="4">
         <v>54</v>
@@ -2425,13 +2425,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D92" s="5">
         <v>994</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D93" s="5">
         <v>695</v>
@@ -2453,27 +2453,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D98" s="4">
         <v>884</v>
@@ -2523,13 +2523,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D99" s="4">
         <v>53</v>
@@ -2537,13 +2537,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D100" s="4">
         <v>107</v>
@@ -2551,13 +2551,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D101" s="4">
         <v>986</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D102" s="4">
         <v>449</v>
@@ -2579,13 +2579,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D103" s="4">
         <v>704</v>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D104" s="4">
         <v>170</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="5">
         <v>163</v>
@@ -2621,13 +2621,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D106" s="5">
         <v>799</v>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D107" s="5">
         <v>160</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="5">
         <v>569</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="5">
         <v>762</v>
@@ -2677,13 +2677,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D110" s="4">
         <v>211</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D112" s="4">
         <v>2</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2733,27 +2733,27 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D115" s="4">
         <v>15</v>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2780,7 +2780,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="54">
+    <cfRule type="expression" dxfId="1" priority="55">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5E2318-EB0B-43CC-A84F-20D5AAC7BF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827965D8-9994-49D3-A8E2-E4ABA152A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
   <si>
     <t>Complemento</t>
   </si>
@@ -53,12 +53,6 @@
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>S030006</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -576,9 +567,6 @@
   </si>
   <si>
     <t>S010012</t>
-  </si>
-  <si>
-    <t>BISCOITO - DOCE</t>
   </si>
   <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
@@ -1135,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1165,13 +1153,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1179,27 +1167,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1207,128 +1195,128 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="D6" s="5">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D7" s="5">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
+        <v>212</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1208</v>
+        <v>145</v>
+      </c>
+      <c r="D9" s="5">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>122</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="4">
-        <v>829</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1045</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>809</v>
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1045</v>
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,69 +1324,69 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D15" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="D18" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,181 +1394,181 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="D25" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4">
-        <v>52</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="5">
-        <v>904</v>
+        <v>27</v>
+      </c>
+      <c r="D27" s="4">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D28" s="4">
-        <v>903</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="4">
-        <v>108</v>
+        <v>174</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="4">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1160</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,97 +1576,97 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="4">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="D34" s="4">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35" s="4">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1178</v>
+        <v>33</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1179</v>
+        <v>134</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,38 +1674,38 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>181</v>
+        <v>36</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1725,44 +1713,44 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1162</v>
+        <v>40</v>
+      </c>
+      <c r="D42" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="4">
-        <v>1</v>
+      <c r="D43" s="5">
+        <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44" s="5">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,332 +1758,332 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D45" s="5">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="D46" s="5">
-        <v>900</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="5">
-        <v>898</v>
+        <v>182</v>
+      </c>
+      <c r="D47" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="D48" s="4">
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D49" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D50" s="4">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="4">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D52" s="4">
-        <v>167</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>149</v>
+        <v>49</v>
+      </c>
+      <c r="D53" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D54" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D55" s="4">
-        <v>80</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="4">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="4">
-        <v>835</v>
+        <v>115</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="5">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1164</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="D59" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4">
-        <v>1164</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D62" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D63" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4">
-        <v>910</v>
+        <v>745</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="D66" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D67" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2103,13 +2091,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2117,161 +2105,161 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="D71" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D72" s="4">
-        <v>31</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="4">
-        <v>2</v>
+        <v>169</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D74" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1173</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D76" s="4">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="D77" s="4">
-        <v>1173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1174</v>
+        <v>162</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D79" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>166</v>
+        <v>146</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>151</v>
@@ -2280,189 +2268,189 @@
         <v>71</v>
       </c>
       <c r="D81" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D82" s="4">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D83" s="4">
-        <v>820</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D84" s="4">
-        <v>819</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D85" s="4">
-        <v>553</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D86" s="4">
-        <v>395</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="4">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D88" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>168</v>
+        <v>81</v>
+      </c>
+      <c r="D89" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="4">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="D90" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="4">
-        <v>54</v>
+      <c r="D91" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D92" s="5">
-        <v>994</v>
+        <v>167</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" s="5">
-        <v>695</v>
+        <v>87</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2470,7 +2458,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>89</v>
@@ -2481,16 +2469,16 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D96" s="4">
-        <v>1</v>
+        <v>884</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,35 +2492,35 @@
         <v>91</v>
       </c>
       <c r="D97" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="D98" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D99" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,63 +2534,63 @@
         <v>95</v>
       </c>
       <c r="D100" s="4">
-        <v>107</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D101" s="4">
-        <v>986</v>
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D102" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="4">
-        <v>704</v>
+      <c r="D103" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" s="4">
-        <v>170</v>
+        <v>98</v>
+      </c>
+      <c r="D104" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,41 +2598,41 @@
         <v>101</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D105" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D106" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D107" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,52 +2640,52 @@
         <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D108" s="5">
-        <v>569</v>
+        <v>106</v>
+      </c>
+      <c r="D108" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D109" s="5">
-        <v>762</v>
+        <v>140</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D110" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2705,78 +2693,50 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D112" s="4">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D113" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D115" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D116" s="4">
+        <v>108</v>
+      </c>
+      <c r="D114" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D115" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D116">
-      <sortCondition ref="A1:A115"/>
+  <autoFilter ref="A1:D113" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
+      <sortCondition ref="A1:A113"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2784,7 +2744,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D116">
+  <conditionalFormatting sqref="A2:D114">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827965D8-9994-49D3-A8E2-E4ABA152A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A771F17-02E6-4A71-9595-0211B84DE9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -620,9 +620,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>150</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>149</v>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>149</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>149</v>
@@ -2002,7 +2002,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,13 +2035,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2091,13 +2091,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2105,13 +2105,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>149</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>151</v>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A771F17-02E6-4A71-9595-0211B84DE9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305A520-A56E-4162-BD06-D6725D09E2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D62" sqref="A62:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2534,7 @@
         <v>95</v>
       </c>
       <c r="D100" s="4">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9305A520-A56E-4162-BD06-D6725D09E2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908353E-F056-4DA6-AE60-86634DF2660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -323,9 +323,6 @@
     <t>S010049</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/ 100UN - 100LT</t>
-  </si>
-  <si>
     <t>S010068</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/ 100UN - 100L</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1167,27 +1167,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D9" s="5">
         <v>122</v>
@@ -1268,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1310,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D15" s="4">
         <v>58</v>
@@ -1352,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1366,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1408,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1436,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1450,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1464,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D25" s="5">
         <v>904</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
@@ -1506,7 +1506,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1646,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1702,7 +1702,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>38</v>
@@ -1716,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
@@ -1730,7 +1730,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1744,7 +1744,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1758,7 +1758,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1797,13 +1797,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1814,7 +1814,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>45</v>
@@ -1828,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>45</v>
@@ -1839,24 +1839,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1870,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>49</v>
@@ -1884,7 +1884,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>51</v>
@@ -1898,7 +1898,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1912,7 +1912,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D58" s="4">
         <v>1164</v>
@@ -1954,7 +1954,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1968,7 +1968,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>60</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>60</v>
@@ -2010,7 +2010,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -2024,7 +2024,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2091,13 +2091,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2105,13 +2105,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2122,7 +2122,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>66</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2147,27 +2147,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2206,7 +2206,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>68</v>
@@ -2217,24 +2217,24 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>69</v>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2262,7 +2262,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>71</v>
@@ -2276,7 +2276,7 @@
         <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>71</v>
@@ -2290,7 +2290,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>74</v>
@@ -2304,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>76</v>
@@ -2318,7 +2318,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>78</v>
@@ -2332,7 +2332,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>78</v>
@@ -2343,16 +2343,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>81</v>
@@ -2374,7 +2374,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>81</v>
@@ -2388,7 +2388,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>84</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>84</v>
@@ -2413,16 +2413,16 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>87</v>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>89</v>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D96" s="4">
         <v>884</v>
@@ -2486,7 +2486,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>91</v>
@@ -2500,7 +2500,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>93</v>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D99" s="4">
         <v>986</v>
@@ -2525,13 +2525,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D100" s="4">
         <v>438</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="4">
         <v>704</v>
@@ -2553,13 +2553,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D102" s="4">
         <v>170</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D103" s="5">
         <v>163</v>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" s="5">
         <v>799</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D105" s="5">
         <v>160</v>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D106" s="5">
         <v>569</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" s="5">
         <v>762</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D108" s="4">
         <v>211</v>
@@ -2651,13 +2651,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2693,27 +2693,27 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D113" s="4">
         <v>15</v>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908353E-F056-4DA6-AE60-86634DF2660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAE822-C99B-492C-AA38-9F94E45002B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -326,9 +326,6 @@
     <t>S010068</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/ 100UN - 40LT</t>
-  </si>
-  <si>
     <t>SACO PLASTICO - 25CMX35CM - 25CMX35CM</t>
   </si>
   <si>
@@ -684,6 +681,9 @@
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 100L</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/ 100UN - 40L</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1167,27 +1167,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D9" s="5">
         <v>122</v>
@@ -1268,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1282,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1296,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1310,7 +1310,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D15" s="4">
         <v>58</v>
@@ -1352,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1366,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1408,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1436,7 +1436,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1450,7 +1450,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1464,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D25" s="5">
         <v>904</v>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
@@ -1506,7 +1506,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1576,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1587,13 +1587,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1615,13 +1615,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1629,13 +1629,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1646,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1702,7 +1702,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>38</v>
@@ -1716,7 +1716,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
@@ -1730,7 +1730,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1744,7 +1744,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1758,7 +1758,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1797,13 +1797,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1814,7 +1814,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>45</v>
@@ -1828,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>45</v>
@@ -1839,24 +1839,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1870,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>49</v>
@@ -1884,7 +1884,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>51</v>
@@ -1898,7 +1898,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1912,7 +1912,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1923,13 +1923,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D58" s="4">
         <v>1164</v>
@@ -1954,7 +1954,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1968,7 +1968,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>60</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>60</v>
@@ -2010,7 +2010,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -2024,7 +2024,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2091,13 +2091,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2105,13 +2105,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2122,7 +2122,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>66</v>
@@ -2133,13 +2133,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2147,27 +2147,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2206,7 +2206,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>68</v>
@@ -2217,24 +2217,24 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>69</v>
@@ -2245,13 +2245,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2262,7 +2262,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>71</v>
@@ -2276,7 +2276,7 @@
         <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>71</v>
@@ -2290,7 +2290,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>74</v>
@@ -2304,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>76</v>
@@ -2318,7 +2318,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>78</v>
@@ -2332,7 +2332,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>78</v>
@@ -2343,16 +2343,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>81</v>
@@ -2374,7 +2374,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>81</v>
@@ -2388,7 +2388,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>84</v>
@@ -2402,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>84</v>
@@ -2413,16 +2413,16 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>87</v>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>88</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>89</v>
@@ -2469,13 +2469,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D96" s="4">
         <v>884</v>
@@ -2486,7 +2486,7 @@
         <v>90</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>91</v>
@@ -2500,7 +2500,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>93</v>
@@ -2511,13 +2511,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" s="4">
         <v>986</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>94</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>94</v>
@@ -2553,13 +2553,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D102" s="4">
         <v>170</v>
@@ -2567,13 +2567,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D103" s="5">
         <v>163</v>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="5">
         <v>799</v>
@@ -2595,13 +2595,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D105" s="5">
         <v>160</v>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D106" s="5">
         <v>569</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D107" s="5">
         <v>762</v>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D108" s="4">
         <v>211</v>
@@ -2651,13 +2651,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D110" s="4">
         <v>2</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2693,27 +2693,27 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="D112" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D113" s="4">
         <v>15</v>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAE822-C99B-492C-AA38-9F94E45002B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E80256B-1437-442F-B97D-71C9D09604B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="212">
   <si>
     <t>Complemento</t>
   </si>
@@ -278,9 +278,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>PILHA - AA (PAR)</t>
   </si>
   <si>
@@ -525,12 +522,6 @@
   </si>
   <si>
     <t>591</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PRANCHETA A4 - UNICA</t>
@@ -1123,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1153,13 +1144,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1167,27 +1158,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1195,10 +1186,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1209,13 +1200,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1223,13 +1214,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1237,13 +1228,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1251,13 +1242,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D9" s="5">
         <v>122</v>
@@ -1268,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1282,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1296,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1310,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1324,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1335,13 +1326,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D15" s="4">
         <v>58</v>
@@ -1352,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1366,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1377,13 +1368,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1394,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1408,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1419,10 +1410,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1436,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1450,7 +1441,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1464,7 +1455,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1475,13 +1466,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D25" s="5">
         <v>904</v>
@@ -1489,13 +1480,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
@@ -1506,7 +1497,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1517,10 +1508,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1531,13 +1522,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1548,7 +1539,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1559,13 +1550,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1576,7 +1567,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1587,13 +1578,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1601,13 +1592,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1615,13 +1606,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1629,13 +1620,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1646,7 +1637,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1657,16 +1648,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1674,7 +1665,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1685,10 +1676,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1702,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>38</v>
@@ -1716,7 +1707,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
@@ -1730,7 +1721,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1744,7 +1735,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1758,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1769,13 +1760,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1783,13 +1774,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1797,13 +1788,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1814,7 +1805,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>45</v>
@@ -1828,7 +1819,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>45</v>
@@ -1839,24 +1830,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1870,7 +1861,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>49</v>
@@ -1884,7 +1875,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>51</v>
@@ -1898,7 +1889,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1912,7 +1903,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1923,13 +1914,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1937,13 +1928,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="4">
         <v>1164</v>
@@ -1954,7 +1945,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1968,7 +1959,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1979,10 +1970,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>60</v>
@@ -1993,10 +1984,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>60</v>
@@ -2010,7 +2001,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -2024,7 +2015,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
@@ -2035,13 +2026,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2049,13 +2040,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2063,13 +2054,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2077,13 +2068,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2091,13 +2082,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2105,13 +2096,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2122,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>66</v>
@@ -2133,13 +2124,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2147,27 +2138,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2175,13 +2166,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2189,13 +2180,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2206,7 +2197,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>68</v>
@@ -2217,24 +2208,24 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>69</v>
@@ -2245,13 +2236,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2262,7 +2253,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>71</v>
@@ -2276,7 +2267,7 @@
         <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>71</v>
@@ -2290,7 +2281,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>74</v>
@@ -2304,7 +2295,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>76</v>
@@ -2318,7 +2309,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>78</v>
@@ -2332,41 +2323,41 @@
         <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D86" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>163</v>
+        <v>80</v>
+      </c>
+      <c r="D87" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="4">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="D88" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,66 +2365,66 @@
         <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D89" s="4">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="D89" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="5">
-        <v>994</v>
+        <v>162</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="5">
-        <v>695</v>
+        <v>86</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2441,223 +2432,223 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>884</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D95" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="D96" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D97" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D98" s="4">
-        <v>107</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D99" s="4">
-        <v>986</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D100" s="4">
-        <v>438</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D101" s="4">
-        <v>704</v>
+        <v>95</v>
+      </c>
+      <c r="D101" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="4">
-        <v>170</v>
+      <c r="D102" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D103" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D104" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D105" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D106" s="5">
-        <v>569</v>
+        <v>103</v>
+      </c>
+      <c r="D106" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" s="5">
-        <v>762</v>
+        <v>137</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D108" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2665,78 +2656,50 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="4">
-        <v>2</v>
+        <v>174</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D111" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D113" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="4">
+      <c r="D112" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D113" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
-      <sortCondition ref="A1:A113"/>
+  <autoFilter ref="A1:D111" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+      <sortCondition ref="A1:A111"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2744,7 +2707,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D114">
+  <conditionalFormatting sqref="A2:D112">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E80256B-1437-442F-B97D-71C9D09604B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E85BF-2DAE-4BBE-9AAD-24FBD0DE3038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="211">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -675,6 +669,9 @@
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 40L</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -782,7 +779,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1117,7 +1123,7 @@
   <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+      <selection activeCell="A83" sqref="A83:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1144,13 +1150,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1158,27 +1164,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1186,10 +1192,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1200,13 +1206,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1214,13 +1220,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1228,13 +1234,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1242,13 +1248,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D9" s="5">
         <v>122</v>
@@ -1259,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1273,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1287,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1301,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1315,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1326,13 +1332,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D15" s="4">
         <v>58</v>
@@ -1343,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1357,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1368,13 +1374,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1385,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1399,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1410,10 +1416,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1427,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1441,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1455,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1466,13 +1472,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D25" s="5">
         <v>904</v>
@@ -1480,13 +1486,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
@@ -1497,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1508,10 +1514,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1522,13 +1528,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1539,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1550,13 +1556,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1567,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1578,13 +1584,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1592,13 +1598,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1606,13 +1612,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1620,13 +1626,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1637,7 +1643,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1648,16 +1654,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,7 +1671,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1676,10 +1682,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1693,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>38</v>
@@ -1707,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
@@ -1721,7 +1727,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1735,7 +1741,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1749,7 +1755,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1760,13 +1766,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1774,13 +1780,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1788,13 +1794,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1805,7 +1811,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>45</v>
@@ -1819,7 +1825,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>45</v>
@@ -1830,24 +1836,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1861,7 +1867,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>49</v>
@@ -1875,7 +1881,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>51</v>
@@ -1889,7 +1895,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1903,7 +1909,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1914,13 +1920,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1928,13 +1934,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="4">
         <v>1164</v>
@@ -1945,7 +1951,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1959,7 +1965,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>59</v>
@@ -1970,10 +1976,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>60</v>
@@ -1984,10 +1990,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>60</v>
@@ -2001,7 +2007,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -2015,7 +2021,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
@@ -2026,13 +2032,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2040,13 +2046,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2054,13 +2060,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2068,13 +2074,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2082,13 +2088,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2096,13 +2102,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2113,7 +2119,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>66</v>
@@ -2124,13 +2130,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2138,27 +2144,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2166,13 +2172,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2180,13 +2186,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2197,7 +2203,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>68</v>
@@ -2208,24 +2214,24 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>69</v>
@@ -2236,13 +2242,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2253,7 +2259,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>71</v>
@@ -2267,7 +2273,7 @@
         <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>71</v>
@@ -2278,27 +2284,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D83" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D84" s="4">
         <v>395</v>
@@ -2306,13 +2312,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D85" s="4">
         <v>86</v>
@@ -2320,13 +2326,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2334,13 +2340,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2348,13 +2354,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D88" s="5">
         <v>994</v>
@@ -2362,13 +2368,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D89" s="5">
         <v>695</v>
@@ -2376,27 +2382,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2404,13 +2410,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2418,13 +2424,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2432,13 +2438,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D94" s="4">
         <v>884</v>
@@ -2446,13 +2452,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D95" s="4">
         <v>53</v>
@@ -2460,13 +2466,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D96" s="4">
         <v>107</v>
@@ -2474,13 +2480,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D97" s="4">
         <v>986</v>
@@ -2488,13 +2494,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D98" s="4">
         <v>438</v>
@@ -2502,13 +2508,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D99" s="4">
         <v>704</v>
@@ -2516,13 +2522,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D100" s="4">
         <v>170</v>
@@ -2530,13 +2536,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="5">
         <v>163</v>
@@ -2544,13 +2550,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="5">
         <v>799</v>
@@ -2558,13 +2564,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D103" s="5">
         <v>160</v>
@@ -2572,13 +2578,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D104" s="5">
         <v>569</v>
@@ -2586,13 +2592,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D105" s="5">
         <v>762</v>
@@ -2600,13 +2606,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2614,13 +2620,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2628,13 +2634,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
@@ -2642,13 +2648,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2656,27 +2662,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D111" s="4">
         <v>15</v>
@@ -2684,13 +2690,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2703,13 +2709,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="2" priority="56">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D112">
+  <conditionalFormatting sqref="A2:D82 A84:D112">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:D83">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A83))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E85BF-2DAE-4BBE-9AAD-24FBD0DE3038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E386F971-DE3E-4628-B8D9-A0C53D1A991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:D83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1164,27 +1164,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1234,13 +1234,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1248,13 +1248,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D9" s="5">
         <v>122</v>
@@ -1265,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1279,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1293,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D15" s="4">
         <v>58</v>
@@ -1349,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1363,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -1374,13 +1374,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1433,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>21</v>
@@ -1447,7 +1447,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
@@ -1461,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>25</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D25" s="5">
         <v>904</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
@@ -1503,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1573,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>31</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1598,13 +1598,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1612,13 +1612,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1626,13 +1626,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1643,7 +1643,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
@@ -1699,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>38</v>
@@ -1713,7 +1713,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
@@ -1727,7 +1727,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>40</v>
@@ -1741,7 +1741,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1755,7 +1755,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>40</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -1780,13 +1780,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1811,7 +1811,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>45</v>
@@ -1825,7 +1825,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>45</v>
@@ -1836,24 +1836,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -1867,7 +1867,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>49</v>
@@ -1878,27 +1878,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D54" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D55" s="4">
         <v>835</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D58" s="4">
         <v>1164</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>40</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D60" s="4">
         <v>103</v>
@@ -1976,13 +1976,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>103</v>
@@ -1990,13 +1990,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="4">
         <v>1166</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -2018,13 +2018,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D64" s="4">
         <v>745</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D71" s="4">
         <v>2</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2144,27 +2144,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2200,13 +2200,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D77" s="4">
         <v>211</v>
@@ -2214,27 +2214,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D79" s="4">
         <v>1167</v>
@@ -2242,13 +2242,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2256,13 +2256,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D81" s="4">
         <v>820</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4">
         <v>819</v>
@@ -2284,13 +2284,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
         <v>1394</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D84" s="4">
         <v>395</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D85" s="4">
         <v>86</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D88" s="5">
         <v>994</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D89" s="5">
         <v>695</v>
@@ -2382,27 +2382,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2410,13 +2410,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2424,13 +2424,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D94" s="4">
         <v>884</v>
@@ -2452,13 +2452,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D95" s="4">
         <v>53</v>
@@ -2466,13 +2466,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D96" s="4">
         <v>107</v>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D97" s="4">
         <v>986</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="4">
         <v>438</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="4">
         <v>704</v>
@@ -2522,13 +2522,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D100" s="4">
         <v>170</v>
@@ -2536,13 +2536,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D101" s="5">
         <v>163</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D102" s="5">
         <v>799</v>
@@ -2564,13 +2564,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D103" s="5">
         <v>160</v>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D104" s="5">
         <v>569</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="5">
         <v>762</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2620,13 +2620,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2634,13 +2634,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
@@ -2648,13 +2648,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2662,27 +2662,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D111" s="4">
         <v>15</v>
@@ -2690,13 +2690,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2709,18 +2709,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="56">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D82 A84:D112">
+  <conditionalFormatting sqref="A2:D53 A55:D112">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:D83">
+  <conditionalFormatting sqref="A54:D54">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A83))&gt;0</formula>
+      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E386F971-DE3E-4628-B8D9-A0C53D1A991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A02488-AFEA-42ED-AE16-B61FA6716A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="208">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -137,24 +128,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -200,9 +182,6 @@
     <t>S150339</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -290,15 +266,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -347,9 +317,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -368,18 +335,12 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -413,27 +374,18 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
     <t>S020041</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -443,9 +395,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -455,9 +404,6 @@
     <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
   </si>
   <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
@@ -467,9 +413,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>UM.</t>
   </si>
   <si>
@@ -500,9 +443,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
@@ -515,15 +455,9 @@
     <t>591</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
@@ -533,12 +467,6 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -548,9 +476,6 @@
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
   </si>
   <si>
@@ -672,6 +597,72 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - LIMPA VIDRO</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -779,16 +770,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1122,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:D54"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1150,13 +1132,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1164,27 +1146,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>164</v>
+        <v>141</v>
+      </c>
+      <c r="D3" s="5">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5">
         <v>0.5</v>
@@ -1192,10 +1174,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1206,13 +1188,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5">
         <v>53</v>
@@ -1220,13 +1202,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1234,13 +1216,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1248,13 +1230,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D9" s="5">
         <v>122</v>
@@ -1265,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1279,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1293,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1307,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1321,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1332,13 +1314,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4">
         <v>58</v>
@@ -1349,7 +1331,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1360,41 +1342,41 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -1402,13 +1384,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -1416,13 +1398,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -1430,41 +1412,41 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4">
         <v>52</v>
@@ -1472,13 +1454,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5">
         <v>904</v>
@@ -1486,13 +1468,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D26" s="4">
         <v>903</v>
@@ -1500,13 +1482,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4">
         <v>108</v>
@@ -1514,13 +1496,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4">
         <v>100</v>
@@ -1528,27 +1510,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D29" s="5">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4">
         <v>107</v>
@@ -1556,13 +1538,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1570,13 +1552,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4">
         <v>103</v>
@@ -1584,13 +1566,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D33" s="4">
         <v>1176</v>
@@ -1598,13 +1580,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D34" s="4">
         <v>1177</v>
@@ -1612,13 +1594,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D35" s="4">
         <v>1178</v>
@@ -1626,13 +1608,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D36" s="4">
         <v>1179</v>
@@ -1640,55 +1622,55 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>169</v>
+        <v>114</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D40" s="4">
         <v>1162</v>
@@ -1696,27 +1678,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D42" s="5">
         <v>899</v>
@@ -1724,13 +1706,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D43" s="5">
         <v>896</v>
@@ -1738,13 +1720,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D44" s="5">
         <v>900</v>
@@ -1752,13 +1734,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D45" s="5">
         <v>898</v>
@@ -1766,27 +1748,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D46" s="5">
-        <v>1</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1794,13 +1776,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1808,13 +1790,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D49" s="4">
         <v>166</v>
@@ -1822,13 +1804,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D50" s="4">
         <v>167</v>
@@ -1836,27 +1818,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="D51" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4">
         <v>448</v>
@@ -1864,13 +1846,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D53" s="4">
         <v>80</v>
@@ -1878,13 +1860,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D54" s="4">
         <v>1396</v>
@@ -1892,13 +1874,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D55" s="4">
         <v>835</v>
@@ -1906,41 +1888,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D56" s="5">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D58" s="4">
         <v>1164</v>
@@ -1948,13 +1930,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D59" s="4">
         <v>40</v>
@@ -1962,13 +1944,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D60" s="4">
         <v>103</v>
@@ -1976,13 +1958,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>103</v>
@@ -1990,13 +1972,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D62" s="4">
         <v>1166</v>
@@ -2004,27 +1986,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D64" s="4">
         <v>745</v>
@@ -2032,13 +2014,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2046,13 +2028,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2060,13 +2042,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2074,13 +2056,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2088,13 +2070,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2102,13 +2084,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2116,13 +2098,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D71" s="4">
         <v>2</v>
@@ -2130,13 +2112,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2144,27 +2126,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D73" s="4">
+        <v>874</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2172,13 +2154,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2186,13 +2168,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2200,13 +2182,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D77" s="4">
         <v>211</v>
@@ -2214,27 +2196,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D79" s="4">
         <v>1167</v>
@@ -2242,13 +2224,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2256,13 +2238,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D81" s="4">
         <v>820</v>
@@ -2270,13 +2252,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D82" s="4">
         <v>819</v>
@@ -2284,13 +2266,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D83" s="4">
         <v>1394</v>
@@ -2298,13 +2280,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D84" s="4">
         <v>395</v>
@@ -2312,13 +2294,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D85" s="4">
         <v>86</v>
@@ -2326,13 +2308,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D86" s="4">
         <v>55</v>
@@ -2340,13 +2322,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D87" s="4">
         <v>54</v>
@@ -2354,13 +2336,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D88" s="5">
         <v>994</v>
@@ -2368,13 +2350,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D89" s="5">
         <v>695</v>
@@ -2382,69 +2364,69 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D91" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D92" s="4">
-        <v>1</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D93" s="4">
-        <v>1</v>
+        <v>798</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D94" s="4">
         <v>884</v>
@@ -2452,13 +2434,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D95" s="4">
         <v>53</v>
@@ -2466,13 +2448,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D96" s="4">
         <v>107</v>
@@ -2480,13 +2462,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D97" s="4">
         <v>986</v>
@@ -2494,13 +2476,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D98" s="4">
         <v>438</v>
@@ -2508,13 +2490,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D99" s="4">
         <v>704</v>
@@ -2522,13 +2504,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D100" s="4">
         <v>170</v>
@@ -2536,13 +2518,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D101" s="5">
         <v>163</v>
@@ -2550,13 +2532,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D102" s="5">
         <v>799</v>
@@ -2564,13 +2546,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D103" s="5">
         <v>160</v>
@@ -2578,13 +2560,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D104" s="5">
         <v>569</v>
@@ -2592,13 +2574,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D105" s="5">
         <v>762</v>
@@ -2606,13 +2588,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D106" s="4">
         <v>211</v>
@@ -2620,27 +2602,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D107" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
@@ -2648,41 +2630,41 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D109" s="4">
-        <v>1</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D111" s="4">
         <v>15</v>
@@ -2690,37 +2672,32 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D112" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D111" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+  <autoFilter ref="A1:D112" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
       <sortCondition ref="A1:A111"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="1" priority="57">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D53 A55:D112">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D112">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:D54">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A02488-AFEA-42ED-AE16-B61FA6716A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18066233-5D92-48C0-8DAA-0304F7C839A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="210">
   <si>
     <t>Complemento</t>
   </si>
@@ -663,6 +663,12 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -770,7 +776,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1102,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,83 +1903,83 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1416</v>
+        <v>209</v>
+      </c>
+      <c r="D56" s="4">
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>147</v>
+        <v>47</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1416</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1164</v>
+        <v>98</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="D59" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D60" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="4">
         <v>103</v>
@@ -1972,7 +1987,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>125</v>
@@ -1981,54 +1996,54 @@
         <v>52</v>
       </c>
       <c r="D62" s="4">
-        <v>1166</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="4">
-        <v>70</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D64" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="D65" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>125</v>
@@ -2042,7 +2057,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>125</v>
@@ -2051,26 +2066,26 @@
         <v>175</v>
       </c>
       <c r="D67" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>125</v>
@@ -2079,12 +2094,12 @@
         <v>169</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>125</v>
@@ -2093,68 +2108,68 @@
         <v>169</v>
       </c>
       <c r="D70" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="D71" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="D72" s="4">
-        <v>1181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D73" s="4">
-        <v>874</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D74" s="4">
-        <v>1172</v>
+        <v>874</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>125</v>
@@ -2163,12 +2178,12 @@
         <v>164</v>
       </c>
       <c r="D75" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>125</v>
@@ -2177,60 +2192,60 @@
         <v>164</v>
       </c>
       <c r="D76" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D77" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>137</v>
+        <v>59</v>
+      </c>
+      <c r="D78" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1167</v>
+        <v>136</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2238,21 +2253,21 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="D81" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>127</v>
@@ -2261,68 +2276,68 @@
         <v>62</v>
       </c>
       <c r="D82" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D83" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D84" s="4">
-        <v>395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D85" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D86" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>128</v>
@@ -2331,26 +2346,26 @@
         <v>70</v>
       </c>
       <c r="D87" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" s="5">
-        <v>994</v>
+        <v>70</v>
+      </c>
+      <c r="D88" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>125</v>
@@ -2359,138 +2374,138 @@
         <v>73</v>
       </c>
       <c r="D89" s="5">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1457</v>
+        <v>73</v>
+      </c>
+      <c r="D90" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="D91" s="4">
-        <v>1182</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D92" s="4">
-        <v>1030</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D93" s="4">
-        <v>798</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D94" s="4">
-        <v>884</v>
+        <v>798</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="D95" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D96" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D97" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D98" s="4">
-        <v>438</v>
+        <v>986</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>127</v>
@@ -2499,40 +2514,40 @@
         <v>81</v>
       </c>
       <c r="D99" s="4">
-        <v>704</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D100" s="4">
-        <v>170</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="5">
-        <v>163</v>
+      <c r="D101" s="4">
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>125</v>
@@ -2541,26 +2556,26 @@
         <v>83</v>
       </c>
       <c r="D102" s="5">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D103" s="5">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>130</v>
@@ -2569,12 +2584,12 @@
         <v>87</v>
       </c>
       <c r="D104" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>130</v>
@@ -2583,121 +2598,140 @@
         <v>87</v>
       </c>
       <c r="D105" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" s="4">
-        <v>211</v>
+        <v>87</v>
+      </c>
+      <c r="D106" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D107" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D108" s="4">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D109" s="4">
-        <v>1417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1417</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D111" s="4">
-        <v>15</v>
+        <v>146</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="B113" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D113" s="4">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D112" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
-      <sortCondition ref="A1:A111"/>
+  <autoFilter ref="A1:D113" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
+      <sortCondition ref="A1:A112"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="57">
+    <cfRule type="expression" dxfId="2" priority="58">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D112">
+  <conditionalFormatting sqref="A2:D55 A57:D113">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:D56">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18066233-5D92-48C0-8DAA-0304F7C839A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8382A9CC-8FEF-4B18-A0CD-6AD056EDE166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="209">
   <si>
     <t>Complemento</t>
   </si>
@@ -582,9 +582,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>SACO P/ LIXO C/ 100UN - 100L</t>
@@ -776,16 +773,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1117,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1345,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>125</v>
@@ -1371,13 +1359,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="D18" s="4">
         <v>1184</v>
@@ -1427,7 +1415,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>126</v>
@@ -1441,7 +1429,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>126</v>
@@ -1525,7 +1513,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>125</v>
@@ -1637,7 +1625,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>125</v>
@@ -1665,7 +1653,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>125</v>
@@ -1693,7 +1681,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>125</v>
@@ -1763,7 +1751,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>125</v>
@@ -1833,7 +1821,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>125</v>
@@ -1875,7 +1863,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>126</v>
@@ -1903,13 +1891,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D56" s="4">
         <v>116</v>
@@ -1917,7 +1905,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>125</v>
@@ -1931,7 +1919,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>126</v>
@@ -2001,49 +1989,49 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D63" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D64" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D65" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>125</v>
@@ -2057,7 +2045,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>125</v>
@@ -2066,26 +2054,26 @@
         <v>175</v>
       </c>
       <c r="D67" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D68" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>125</v>
@@ -2094,12 +2082,12 @@
         <v>169</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>125</v>
@@ -2108,68 +2096,68 @@
         <v>169</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="D71" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D73" s="4">
-        <v>1181</v>
+        <v>874</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D74" s="4">
-        <v>874</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>125</v>
@@ -2178,12 +2166,12 @@
         <v>164</v>
       </c>
       <c r="D75" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>125</v>
@@ -2192,60 +2180,60 @@
         <v>164</v>
       </c>
       <c r="D76" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D77" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D78" s="4">
-        <v>211</v>
+        <v>136</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>137</v>
+        <v>60</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2253,21 +2241,21 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="D81" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>127</v>
@@ -2276,68 +2264,68 @@
         <v>62</v>
       </c>
       <c r="D82" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D83" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D84" s="4">
-        <v>1394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D85" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D86" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>128</v>
@@ -2346,26 +2334,26 @@
         <v>70</v>
       </c>
       <c r="D87" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="4">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D88" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>125</v>
@@ -2374,21 +2362,21 @@
         <v>73</v>
       </c>
       <c r="D89" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" s="5">
-        <v>695</v>
+        <v>138</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,10 +2387,10 @@
         <v>125</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="D91" s="4">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,10 +2401,10 @@
         <v>125</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D92" s="4">
-        <v>1182</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,80 +2415,80 @@
         <v>125</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D93" s="4">
-        <v>1030</v>
+        <v>798</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D94" s="4">
-        <v>798</v>
+        <v>884</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D95" s="4">
-        <v>884</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D96" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D97" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D98" s="4">
-        <v>986</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,40 +2502,40 @@
         <v>81</v>
       </c>
       <c r="D99" s="4">
-        <v>438</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D100" s="4">
-        <v>704</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="4">
-        <v>170</v>
+      <c r="D101" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>125</v>
@@ -2556,26 +2544,26 @@
         <v>83</v>
       </c>
       <c r="D102" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D103" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>130</v>
@@ -2584,12 +2572,12 @@
         <v>87</v>
       </c>
       <c r="D104" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>130</v>
@@ -2598,140 +2586,121 @@
         <v>87</v>
       </c>
       <c r="D105" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D106" s="5">
-        <v>762</v>
+        <v>91</v>
+      </c>
+      <c r="D106" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D107" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D109" s="4">
-        <v>2</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="4">
-        <v>1417</v>
+        <v>146</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>147</v>
+        <v>119</v>
+      </c>
+      <c r="D111" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D112" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D113" s="4">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D113" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
-      <sortCondition ref="A1:A112"/>
+  <autoFilter ref="A1:D112" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+      <sortCondition ref="A1:A111"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="1" priority="58">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D55 A57:D113">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D112">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:D56">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A56))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8382A9CC-8FEF-4B18-A0CD-6AD056EDE166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4EDD2-8ECC-46AA-A70B-856A44451CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -542,9 +542,6 @@
     <t>MOP - REFIL UMIDO</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>126</v>
@@ -1172,7 +1172,7 @@
         <v>95</v>
       </c>
       <c r="D4" s="5">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,13 +1219,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>125</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D18" s="4">
         <v>1184</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>126</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>126</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>125</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>125</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>125</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>125</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>125</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>125</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>126</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D56" s="4">
         <v>116</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>125</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>126</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>125</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>125</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>127</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>125</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>125</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>125</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>125</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>127</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>127</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>127</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>125</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>126</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>125</v>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4EDD2-8ECC-46AA-A70B-856A44451CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F206A36-C377-4156-A7D8-992437CAF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -773,7 +773,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1107,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1587,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,7 +1601,7 @@
         <v>112</v>
       </c>
       <c r="D34" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,7 +1615,7 @@
         <v>112</v>
       </c>
       <c r="D35" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +1629,7 @@
         <v>112</v>
       </c>
       <c r="D36" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2694,13 +2703,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="58">
+    <cfRule type="expression" dxfId="2" priority="59">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D112">
+  <conditionalFormatting sqref="A2:D32 A37:D112">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:D36">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F206A36-C377-4156-A7D8-992437CAF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73254B17-438F-4355-9544-3E6F4925769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -434,9 +434,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>SABAO EM BARRA - PACOTE C/5</t>
-  </si>
-  <si>
     <t>S010046</t>
   </si>
   <si>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
   </si>
 </sst>
 </file>
@@ -773,16 +773,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1116,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,13 +1149,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D3" s="5">
         <v>118</v>
@@ -1172,7 +1163,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>126</v>
@@ -1186,7 +1177,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>125</v>
@@ -1228,13 +1219,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1354,7 +1345,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>125</v>
@@ -1368,13 +1359,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D18" s="4">
         <v>1184</v>
@@ -1424,7 +1415,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>126</v>
@@ -1433,12 +1424,12 @@
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>126</v>
@@ -1522,13 +1513,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="5">
         <v>874</v>
@@ -1550,13 +1541,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1578,7 +1569,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>125</v>
@@ -1592,7 +1583,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>125</v>
@@ -1606,7 +1597,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>125</v>
@@ -1620,7 +1611,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>125</v>
@@ -1634,7 +1625,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>125</v>
@@ -1648,7 +1639,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>125</v>
@@ -1662,7 +1653,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>125</v>
@@ -1676,7 +1667,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>125</v>
@@ -1690,7 +1681,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>125</v>
@@ -1760,7 +1751,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>125</v>
@@ -1774,13 +1765,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1830,13 +1821,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="4">
         <v>272</v>
@@ -1844,7 +1835,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>125</v>
@@ -1872,7 +1863,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>126</v>
@@ -1900,13 +1891,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="D56" s="4">
         <v>116</v>
@@ -1914,7 +1905,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>125</v>
@@ -1928,7 +1919,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>126</v>
@@ -1937,18 +1928,18 @@
         <v>98</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D59" s="4">
         <v>1164</v>
@@ -1984,7 +1975,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>125</v>
@@ -1998,7 +1989,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>125</v>
@@ -2026,13 +2017,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2040,13 +2031,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2054,13 +2045,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2068,13 +2059,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2082,13 +2073,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2096,13 +2087,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2124,13 +2115,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2138,13 +2129,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="4">
         <v>874</v>
@@ -2152,13 +2143,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2166,13 +2157,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2180,13 +2171,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2208,21 +2199,21 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>125</v>
@@ -2236,7 +2227,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>125</v>
@@ -2278,7 +2269,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>127</v>
@@ -2376,13 +2367,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D90" s="4">
         <v>1457</v>
@@ -2390,7 +2381,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>125</v>
@@ -2404,7 +2395,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>125</v>
@@ -2418,7 +2409,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>125</v>
@@ -2432,16 +2423,16 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D94" s="4">
-        <v>884</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,7 +2465,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>127</v>
@@ -2488,7 +2479,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>127</v>
@@ -2502,7 +2493,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>127</v>
@@ -2614,7 +2605,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>125</v>
@@ -2642,7 +2633,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>126</v>
@@ -2656,16 +2647,16 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,7 +2675,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>125</v>
@@ -2703,18 +2694,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="1" priority="59">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D32 A37:D112">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D112">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:D36">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73254B17-438F-4355-9544-3E6F4925769F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6487EBA0-B50D-4EF2-9109-057A6B267370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="208">
   <si>
     <t>Complemento</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>S110020</t>
-  </si>
-  <si>
-    <t>591</t>
   </si>
   <si>
     <t>S020036</t>
@@ -1107,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,13 +1146,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D3" s="5">
         <v>118</v>
@@ -1163,7 +1160,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>126</v>
@@ -1177,7 +1174,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>125</v>
@@ -1219,13 +1216,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>125</v>
@@ -1359,13 +1356,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D18" s="4">
         <v>1184</v>
@@ -1415,7 +1412,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>126</v>
@@ -1424,12 +1421,12 @@
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>126</v>
@@ -1513,13 +1510,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="5">
         <v>874</v>
@@ -1541,13 +1538,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>125</v>
@@ -1583,7 +1580,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>125</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>125</v>
@@ -1611,7 +1608,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>125</v>
@@ -1625,7 +1622,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>125</v>
@@ -1639,7 +1636,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>125</v>
@@ -1653,7 +1650,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>125</v>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>125</v>
@@ -1681,7 +1678,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>125</v>
@@ -1751,7 +1748,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>125</v>
@@ -1765,13 +1762,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1821,7 +1818,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>125</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>125</v>
@@ -1863,7 +1860,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>126</v>
@@ -1891,13 +1888,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="D56" s="4">
         <v>116</v>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>125</v>
@@ -1919,7 +1916,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>126</v>
@@ -1928,18 +1925,18 @@
         <v>98</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D59" s="4">
         <v>1164</v>
@@ -1975,7 +1972,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>125</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>125</v>
@@ -2017,13 +2014,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2031,13 +2028,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2045,13 +2042,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2059,13 +2056,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2073,13 +2070,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2087,13 +2084,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2115,13 +2112,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2129,13 +2126,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="4">
         <v>874</v>
@@ -2143,13 +2140,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2157,13 +2154,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2171,13 +2168,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2207,13 +2204,13 @@
       <c r="C78" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>136</v>
+      <c r="D78" s="5">
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>125</v>
@@ -2227,7 +2224,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>125</v>
@@ -2269,7 +2266,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>127</v>
@@ -2367,13 +2364,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D90" s="4">
         <v>1457</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>125</v>
@@ -2395,7 +2392,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>125</v>
@@ -2409,7 +2406,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>125</v>
@@ -2423,7 +2420,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>125</v>
@@ -2465,7 +2462,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>127</v>
@@ -2479,7 +2476,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>127</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>127</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>125</v>
@@ -2633,7 +2630,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>126</v>
@@ -2647,16 +2644,16 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,7 +2672,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>125</v>

--- a/pages/BA_ssoservi_cservico_csala.xlsx
+++ b/pages/BA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6487EBA0-B50D-4EF2-9109-057A6B267370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381F08A-C675-4E5F-93E0-2C9011C40324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66DD5035-C496-4A33-BA22-CD402935C2B8}"/>
   </bookViews>
@@ -347,15 +347,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -458,9 +452,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -663,6 +654,15 @@
   </si>
   <si>
     <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1104,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A369FB58-D533-46A6-B5FA-793763E80E34}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1135,10 +1153,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1146,13 +1164,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="D3" s="5">
         <v>118</v>
@@ -1160,10 +1178,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>95</v>
@@ -1174,10 +1192,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1191,7 +1209,7 @@
         <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>94</v>
@@ -1202,13 +1220,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1216,13 +1234,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4">
         <v>1208</v>
@@ -1230,13 +1248,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5">
         <v>122</v>
@@ -1247,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1261,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1275,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1289,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -1303,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -1314,16 +1332,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="D15" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,7 +1349,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>14</v>
@@ -1342,10 +1360,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -1356,13 +1374,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D18" s="4">
         <v>1184</v>
@@ -1373,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
@@ -1387,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>17</v>
@@ -1398,10 +1416,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1412,24 +1430,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1443,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
@@ -1457,7 +1475,7 @@
         <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>97</v>
@@ -1468,10 +1486,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>97</v>
@@ -1485,7 +1503,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1496,10 +1514,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>24</v>
@@ -1510,13 +1528,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D29" s="5">
         <v>874</v>
@@ -1527,7 +1545,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>26</v>
@@ -1538,13 +1556,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D31" s="4">
         <v>1160</v>
@@ -1555,7 +1573,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1566,13 +1584,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4">
         <v>1175</v>
@@ -1580,13 +1598,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="4">
         <v>1176</v>
@@ -1594,13 +1612,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="4">
         <v>1177</v>
@@ -1608,13 +1626,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="4">
         <v>1178</v>
@@ -1622,10 +1640,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>29</v>
@@ -1636,13 +1654,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="5">
         <v>12</v>
@@ -1650,10 +1668,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1664,10 +1682,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>31</v>
@@ -1678,10 +1696,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1695,7 +1713,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>34</v>
@@ -1709,7 +1727,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
@@ -1723,7 +1741,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>34</v>
@@ -1737,7 +1755,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>34</v>
@@ -1748,13 +1766,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="5">
         <v>1456</v>
@@ -1762,13 +1780,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="4">
         <v>750</v>
@@ -1776,13 +1794,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="4">
         <v>471</v>
@@ -1793,7 +1811,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1807,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>39</v>
@@ -1818,13 +1836,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="4">
         <v>272</v>
@@ -1832,10 +1850,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>41</v>
@@ -1849,7 +1867,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>43</v>
@@ -1860,10 +1878,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -1877,7 +1895,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>46</v>
@@ -1888,13 +1906,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D56" s="4">
         <v>116</v>
@@ -1902,10 +1920,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>47</v>
@@ -1916,27 +1934,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D59" s="4">
         <v>1164</v>
@@ -1947,7 +1965,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>49</v>
@@ -1961,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>51</v>
@@ -1972,10 +1990,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>52</v>
@@ -1986,10 +2004,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>53</v>
@@ -2003,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>55</v>
@@ -2014,13 +2032,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D65" s="4">
         <v>33</v>
@@ -2028,13 +2046,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2042,13 +2060,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D67" s="4">
         <v>32</v>
@@ -2056,13 +2074,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2070,13 +2088,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2084,13 +2102,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D70" s="4">
         <v>31</v>
@@ -2101,7 +2119,7 @@
         <v>56</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>57</v>
@@ -2112,13 +2130,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D72" s="4">
         <v>1181</v>
@@ -2126,13 +2144,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D73" s="4">
         <v>874</v>
@@ -2140,13 +2158,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D74" s="4">
         <v>1172</v>
@@ -2154,13 +2172,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D75" s="4">
         <v>1173</v>
@@ -2168,13 +2186,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D76" s="4">
         <v>1174</v>
@@ -2185,7 +2203,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>59</v>
@@ -2196,13 +2214,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D78" s="5">
         <v>591</v>
@@ -2210,10 +2228,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>60</v>
@@ -2224,13 +2242,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D80" s="4">
         <v>1167</v>
@@ -2241,7 +2259,7 @@
         <v>61</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>62</v>
@@ -2255,7 +2273,7 @@
         <v>63</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>62</v>
@@ -2266,10 +2284,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>64</v>
@@ -2283,7 +2301,7 @@
         <v>65</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>66</v>
@@ -2297,7 +2315,7 @@
         <v>67</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>68</v>
@@ -2311,7 +2329,7 @@
         <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>70</v>
@@ -2325,7 +2343,7 @@
         <v>71</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>70</v>
@@ -2339,7 +2357,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>73</v>
@@ -2353,7 +2371,7 @@
         <v>72</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>73</v>
@@ -2364,13 +2382,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D90" s="4">
         <v>1457</v>
@@ -2378,10 +2396,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>75</v>
@@ -2392,13 +2410,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D92" s="4">
         <v>1030</v>
@@ -2406,10 +2424,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>76</v>
@@ -2420,13 +2438,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D94" s="4">
         <v>51</v>
@@ -2437,7 +2455,7 @@
         <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>78</v>
@@ -2451,7 +2469,7 @@
         <v>79</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>80</v>
@@ -2462,10 +2480,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>99</v>
@@ -2476,10 +2494,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>81</v>
@@ -2490,10 +2508,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>81</v>
@@ -2507,7 +2525,7 @@
         <v>82</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>83</v>
@@ -2521,7 +2539,7 @@
         <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>83</v>
@@ -2535,7 +2553,7 @@
         <v>85</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>83</v>
@@ -2549,7 +2567,7 @@
         <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>87</v>
@@ -2563,7 +2581,7 @@
         <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>87</v>
@@ -2577,7 +2595,7 @@
         <v>89</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>87</v>
@@ -2591,7 +2609,7 @@
         <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>91</v>
@@ -2602,13 +2620,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D107" s="4">
         <v>202</v>
@@ -2616,13 +2634,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D108" s="4">
         <v>2</v>
@@ -2630,10 +2648,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>100</v>
@@ -2644,27 +2662,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D111" s="4">
         <v>15</v>
@@ -2672,10 +2690,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>92</v>
@@ -2691,13 +2709,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="59">
+    <cfRule type="expression" dxfId="3" priority="61">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D112">
+  <conditionalFormatting sqref="A4:D14 A16:D112">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D3">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:D15">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
